--- a/capiq_data/in_process_data/IQ251230.xlsx
+++ b/capiq_data/in_process_data/IQ251230.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1B3D1C-566E-419B-9134-F8C3A5436CEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5058B5C1-CB8A-4B10-8875-3B806E4104E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"65a45f6c-b256-42bb-9b0a-581ab0f52e9b"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"0a02855b-6012-45b1-8b96-0ae706b36bb4"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,120 +853,120 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40573</v>
+        <v>36919</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>506</v>
+        <v>156.82499999999999</v>
       </c>
       <c r="D2">
-        <v>2686</v>
+        <v>2363.2539999999999</v>
       </c>
       <c r="E2">
-        <v>1946</v>
+        <v>2470.4540000000002</v>
       </c>
       <c r="F2">
-        <v>1136</v>
+        <v>1142.7460000000001</v>
       </c>
       <c r="G2">
-        <v>7142</v>
+        <v>8982.8029999999999</v>
       </c>
       <c r="H2">
-        <v>11274</v>
+        <v>10773.019</v>
       </c>
       <c r="I2">
-        <v>686</v>
+        <v>2018.84</v>
       </c>
       <c r="J2">
-        <v>204</v>
+        <v>569.50199999999995</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>145.553</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.81299999999999994</v>
       </c>
       <c r="N2">
-        <v>2914</v>
+        <v>2560.2730000000001</v>
       </c>
       <c r="O2">
-        <v>3435</v>
+        <v>3254.2170000000001</v>
       </c>
       <c r="P2">
-        <v>205</v>
+        <v>725.29899999999998</v>
       </c>
       <c r="Q2">
-        <v>116</v>
+        <v>1.3620000000000001</v>
       </c>
       <c r="R2">
-        <v>40573</v>
+        <v>36919</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>7839</v>
+        <v>7518.8019999999997</v>
       </c>
       <c r="U2">
-        <v>1974</v>
+        <v>1648.9659999999999</v>
       </c>
       <c r="V2">
-        <v>425</v>
+        <v>-4.3259999999999996</v>
       </c>
       <c r="W2">
-        <v>-93</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-230</v>
+        <v>-113.59</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-94</v>
+        <v>295.399</v>
       </c>
       <c r="AA2">
-        <v>506</v>
+        <v>156.82499999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40664</v>
+        <v>37010</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>489</v>
+        <v>318.37700000000001</v>
       </c>
       <c r="D3">
-        <v>2862</v>
+        <v>2139.4169999999999</v>
       </c>
       <c r="E3">
-        <v>1916</v>
+        <v>1614.9110000000001</v>
       </c>
       <c r="F3">
-        <v>1189</v>
+        <v>984.96799999999996</v>
       </c>
       <c r="G3">
-        <v>7944</v>
+        <v>8653.4359999999997</v>
       </c>
       <c r="H3">
-        <v>11957</v>
+        <v>10546.566000000001</v>
       </c>
       <c r="I3">
-        <v>814</v>
+        <v>956.87900000000002</v>
       </c>
       <c r="J3">
-        <v>204</v>
+        <v>566.42700000000002</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>112.9</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3251</v>
+        <v>2103.261</v>
       </c>
       <c r="O3">
-        <v>3775</v>
+        <v>2794.4319999999998</v>
       </c>
       <c r="P3">
-        <v>205</v>
+        <v>683.97900000000004</v>
       </c>
       <c r="Q3">
-        <v>584</v>
+        <v>328.34399999999999</v>
       </c>
       <c r="R3">
-        <v>40664</v>
+        <v>37010</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>8182</v>
+        <v>7752.134</v>
       </c>
       <c r="U3">
-        <v>2558</v>
+        <v>1977.31</v>
       </c>
       <c r="V3">
-        <v>704</v>
+        <v>838.63400000000001</v>
       </c>
       <c r="W3">
-        <v>-93</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-166</v>
+        <v>-22.914000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>102</v>
+        <v>-278.041</v>
       </c>
       <c r="AA3">
-        <v>489</v>
+        <v>318.37700000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40755</v>
+        <v>37101</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>476</v>
+        <v>114.94499999999999</v>
       </c>
       <c r="D4">
-        <v>2787</v>
+        <v>1575.904</v>
       </c>
       <c r="E4">
-        <v>1812</v>
+        <v>1315.8</v>
       </c>
       <c r="F4">
-        <v>1184</v>
+        <v>655.61300000000006</v>
       </c>
       <c r="G4">
-        <v>10273</v>
+        <v>8241.027</v>
       </c>
       <c r="H4">
-        <v>14103</v>
+        <v>10233.286</v>
       </c>
       <c r="I4">
-        <v>656</v>
+        <v>832.77499999999998</v>
       </c>
       <c r="J4">
-        <v>1947</v>
+        <v>565.89300000000003</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>99.992999999999995</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3278</v>
+        <v>1746.2739999999999</v>
       </c>
       <c r="O4">
-        <v>5552</v>
+        <v>2438.672</v>
       </c>
       <c r="P4">
-        <v>1947</v>
+        <v>670.53800000000001</v>
       </c>
       <c r="Q4">
-        <v>2460</v>
+        <v>-612.274</v>
       </c>
       <c r="R4">
-        <v>40755</v>
+        <v>37101</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>8551</v>
+        <v>7794.6139999999996</v>
       </c>
       <c r="U4">
-        <v>5018</v>
+        <v>1365.0360000000001</v>
       </c>
       <c r="V4">
-        <v>599</v>
+        <v>316.52300000000002</v>
       </c>
       <c r="W4">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1606</v>
+        <v>32.463999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>220</v>
+        <v>-752.80899999999997</v>
       </c>
       <c r="AA4">
-        <v>476</v>
+        <v>114.94499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40846</v>
+        <v>37192</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>455</v>
+        <v>-82.317999999999998</v>
       </c>
       <c r="D5">
-        <v>2181</v>
+        <v>1264.673</v>
       </c>
       <c r="E5">
-        <v>1532</v>
+        <v>776.45100000000002</v>
       </c>
       <c r="F5">
-        <v>851</v>
+        <v>468.70600000000002</v>
       </c>
       <c r="G5">
-        <v>10355</v>
+        <v>7782.174</v>
       </c>
       <c r="H5">
-        <v>13861</v>
+        <v>9828.51</v>
       </c>
       <c r="I5">
-        <v>484</v>
+        <v>837.31</v>
       </c>
       <c r="J5">
-        <v>1947</v>
+        <v>564.80499999999995</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,164 +1141,164 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2794</v>
+        <v>1532.816</v>
       </c>
       <c r="O5">
-        <v>5061</v>
+        <v>2221.7730000000001</v>
       </c>
       <c r="P5">
-        <v>1947</v>
+        <v>569.61199999999997</v>
       </c>
       <c r="Q5">
-        <v>942</v>
+        <v>-8.7319999999999993</v>
       </c>
       <c r="R5">
-        <v>40846</v>
+        <v>37192</v>
       </c>
       <c r="S5">
-        <v>12973</v>
+        <v>17365</v>
       </c>
       <c r="T5">
-        <v>8800</v>
+        <v>7606.7370000000001</v>
       </c>
       <c r="U5">
-        <v>5960</v>
+        <v>1356.3040000000001</v>
       </c>
       <c r="V5">
-        <v>701</v>
+        <v>429.47300000000001</v>
       </c>
       <c r="W5">
-        <v>-106</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-250</v>
+        <v>-156.58500000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>558</v>
+        <v>-116.22499999999999</v>
       </c>
       <c r="AA5">
-        <v>455</v>
+        <v>-82.317999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40937</v>
+        <v>37283</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>117</v>
+        <v>-45.494999999999997</v>
       </c>
       <c r="D6">
-        <v>2189</v>
+        <v>1000.46</v>
       </c>
       <c r="E6">
-        <v>1576</v>
+        <v>777.58199999999999</v>
       </c>
       <c r="F6">
-        <v>786</v>
+        <v>385.452</v>
       </c>
       <c r="G6">
-        <v>6157</v>
+        <v>7710.6710000000003</v>
       </c>
       <c r="H6">
-        <v>13597</v>
+        <v>9810.1530000000002</v>
       </c>
       <c r="I6">
-        <v>484</v>
+        <v>262.89499999999998</v>
       </c>
       <c r="J6">
-        <v>1947</v>
+        <v>562.32100000000003</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>60.606000000000002</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-0.52500000000000002</v>
       </c>
       <c r="N6">
-        <v>2494</v>
+        <v>1509.204</v>
       </c>
       <c r="O6">
-        <v>4947</v>
+        <v>2192.9360000000001</v>
       </c>
       <c r="P6">
-        <v>1949</v>
+        <v>627.29700000000003</v>
       </c>
       <c r="Q6">
-        <v>-4279</v>
+        <v>-254.869</v>
       </c>
       <c r="R6">
-        <v>40937</v>
+        <v>37283</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>8650</v>
+        <v>7617.2169999999996</v>
       </c>
       <c r="U6">
-        <v>1681</v>
+        <v>1101.4349999999999</v>
       </c>
       <c r="V6">
-        <v>181</v>
+        <v>101.108</v>
       </c>
       <c r="W6">
-        <v>-104</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-302</v>
+        <v>143.404</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>59</v>
+        <v>-325.24099999999999</v>
       </c>
       <c r="AA6">
-        <v>117</v>
+        <v>-45.494999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41028</v>
+        <v>37374</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>289</v>
+        <v>52.03</v>
       </c>
       <c r="D7">
-        <v>2541</v>
+        <v>1156.472</v>
       </c>
       <c r="E7">
-        <v>1785</v>
+        <v>967.31600000000003</v>
       </c>
       <c r="F7">
-        <v>1011</v>
+        <v>462.74</v>
       </c>
       <c r="G7">
-        <v>6330</v>
+        <v>7715.1279999999997</v>
       </c>
       <c r="H7">
-        <v>13877</v>
+        <v>9857.2029999999995</v>
       </c>
       <c r="I7">
-        <v>507</v>
+        <v>766.49300000000005</v>
       </c>
       <c r="J7">
-        <v>1946</v>
+        <v>577.27599999999995</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>41.433999999999997</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2666</v>
+        <v>1477.002</v>
       </c>
       <c r="O7">
-        <v>5174</v>
+        <v>2182.067</v>
       </c>
       <c r="P7">
-        <v>1947</v>
+        <v>627.81799999999998</v>
       </c>
       <c r="Q7">
-        <v>80</v>
+        <v>-58.98</v>
       </c>
       <c r="R7">
-        <v>41028</v>
+        <v>37374</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>8703</v>
+        <v>7675.1360000000004</v>
       </c>
       <c r="U7">
-        <v>1761</v>
+        <v>1042.4549999999999</v>
       </c>
       <c r="V7">
-        <v>603</v>
+        <v>20.401</v>
       </c>
       <c r="W7">
-        <v>-104</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-261</v>
+        <v>23.760999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-213</v>
+        <v>34.978000000000002</v>
       </c>
       <c r="AA7">
-        <v>289</v>
+        <v>52.03</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41119</v>
+        <v>37465</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>218</v>
+        <v>115.227</v>
       </c>
       <c r="D8">
-        <v>2343</v>
+        <v>1459.682</v>
       </c>
       <c r="E8">
-        <v>1535</v>
+        <v>1085.2139999999999</v>
       </c>
       <c r="F8">
-        <v>930</v>
+        <v>606.14300000000003</v>
       </c>
       <c r="G8">
-        <v>5865</v>
+        <v>8003.7</v>
       </c>
       <c r="H8">
-        <v>13320</v>
+        <v>10209.82</v>
       </c>
       <c r="I8">
-        <v>443</v>
+        <v>900.45500000000004</v>
       </c>
       <c r="J8">
-        <v>1946</v>
+        <v>579.38800000000003</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>40.085999999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2408</v>
+        <v>1641.356</v>
       </c>
       <c r="O8">
-        <v>4981</v>
+        <v>2352.6350000000002</v>
       </c>
       <c r="P8">
-        <v>1946</v>
+        <v>629.27200000000005</v>
       </c>
       <c r="Q8">
-        <v>-232</v>
+        <v>122.158</v>
       </c>
       <c r="R8">
-        <v>41119</v>
+        <v>37465</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>8339</v>
+        <v>7857.1850000000004</v>
       </c>
       <c r="U8">
-        <v>1529</v>
+        <v>1164.6130000000001</v>
       </c>
       <c r="V8">
-        <v>656</v>
+        <v>182.292</v>
       </c>
       <c r="W8">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-609</v>
+        <v>1.252</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-233</v>
+        <v>91.055999999999997</v>
       </c>
       <c r="AA8">
-        <v>218</v>
+        <v>115.227</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41210</v>
+        <v>37556</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-515</v>
+        <v>147.24199999999999</v>
       </c>
       <c r="D9">
-        <v>1646</v>
+        <v>1445.6980000000001</v>
       </c>
       <c r="E9">
-        <v>1220</v>
+        <v>1046.0160000000001</v>
       </c>
       <c r="F9">
-        <v>600</v>
+        <v>602.32600000000002</v>
       </c>
       <c r="G9">
-        <v>5102</v>
+        <v>8072.7929999999997</v>
       </c>
       <c r="H9">
-        <v>12102</v>
+        <v>10224.764999999999</v>
       </c>
       <c r="I9">
-        <v>396</v>
+        <v>723.78599999999994</v>
       </c>
       <c r="J9">
-        <v>1946</v>
+        <v>573.85299999999995</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>40.323</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,161 +1473,161 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2265</v>
+        <v>1501.4559999999999</v>
       </c>
       <c r="O9">
-        <v>4867</v>
+        <v>2205.116</v>
       </c>
       <c r="P9">
-        <v>1946</v>
+        <v>623.62900000000002</v>
       </c>
       <c r="Q9">
-        <v>-137</v>
+        <v>120.178</v>
       </c>
       <c r="R9">
-        <v>41210</v>
+        <v>37556</v>
       </c>
       <c r="S9">
-        <v>14526</v>
+        <v>16077</v>
       </c>
       <c r="T9">
-        <v>7235</v>
+        <v>8019.6490000000003</v>
       </c>
       <c r="U9">
-        <v>1392</v>
+        <v>1284.7909999999999</v>
       </c>
       <c r="V9">
-        <v>411</v>
+        <v>188.33699999999999</v>
       </c>
       <c r="W9">
-        <v>-111</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-582</v>
+        <v>-37.575000000000003</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>79</v>
+        <v>31.167000000000002</v>
       </c>
       <c r="AA9">
-        <v>-515</v>
+        <v>147.24199999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41301</v>
+        <v>37647</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>-65.67</v>
       </c>
       <c r="D10">
-        <v>1573</v>
+        <v>1054.2090000000001</v>
       </c>
       <c r="E10">
-        <v>1109</v>
+        <v>891.29700000000003</v>
       </c>
       <c r="F10">
-        <v>583</v>
+        <v>390.38200000000001</v>
       </c>
       <c r="G10">
-        <v>4765</v>
+        <v>7878.7470000000003</v>
       </c>
       <c r="H10">
-        <v>11714</v>
+        <v>10024.914000000001</v>
       </c>
       <c r="I10">
-        <v>430</v>
+        <v>688.96900000000005</v>
       </c>
       <c r="J10">
-        <v>1946</v>
+        <v>573.745</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>40.335999999999999</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-1.613</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-0.85799999999999998</v>
       </c>
       <c r="N10">
-        <v>1965</v>
+        <v>1298.4079999999999</v>
       </c>
       <c r="O10">
-        <v>4573</v>
+        <v>2008.4349999999999</v>
       </c>
       <c r="P10">
-        <v>1946</v>
+        <v>623.64800000000002</v>
       </c>
       <c r="Q10">
-        <v>131</v>
+        <v>8.157</v>
       </c>
       <c r="R10">
-        <v>41301</v>
+        <v>37647</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>14159</v>
       </c>
       <c r="T10">
-        <v>7141</v>
+        <v>8016.4790000000003</v>
       </c>
       <c r="U10">
-        <v>1523</v>
+        <v>1292.9480000000001</v>
       </c>
       <c r="V10">
-        <v>16</v>
+        <v>122.53700000000001</v>
       </c>
       <c r="W10">
-        <v>-108</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-138</v>
+        <v>25.858000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>302</v>
+        <v>-32.790999999999997</v>
       </c>
       <c r="AA10">
-        <v>34</v>
+        <v>-65.67</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41392</v>
+        <v>37738</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-129</v>
+        <v>-62.125999999999998</v>
       </c>
       <c r="D11">
-        <v>1973</v>
+        <v>1107.1769999999999</v>
       </c>
       <c r="E11">
-        <v>1275</v>
+        <v>742.06299999999999</v>
       </c>
       <c r="F11">
-        <v>809</v>
+        <v>372.774</v>
       </c>
       <c r="G11">
-        <v>5113</v>
+        <v>7859.0879999999997</v>
       </c>
       <c r="H11">
-        <v>11695</v>
+        <v>9923.8950000000004</v>
       </c>
       <c r="I11">
-        <v>531</v>
+        <v>712.20600000000002</v>
       </c>
       <c r="J11">
-        <v>1946</v>
+        <v>570.15300000000002</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2201</v>
+        <v>1276.914</v>
       </c>
       <c r="O11">
-        <v>4797</v>
+        <v>1985.973</v>
       </c>
       <c r="P11">
-        <v>1946</v>
+        <v>579.97400000000005</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>134.673</v>
       </c>
       <c r="R11">
-        <v>41392</v>
+        <v>37738</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>14159</v>
       </c>
       <c r="T11">
-        <v>6898</v>
+        <v>7937.9219999999996</v>
       </c>
       <c r="U11">
-        <v>1545</v>
+        <v>1427.6210000000001</v>
       </c>
       <c r="V11">
-        <v>224</v>
+        <v>324.483</v>
       </c>
       <c r="W11">
-        <v>-108</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-141</v>
+        <v>-52.988</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-9</v>
+        <v>-97.941000000000003</v>
       </c>
       <c r="AA11">
-        <v>-129</v>
+        <v>-62.125999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41483</v>
+        <v>37829</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>168</v>
+        <v>-36.802</v>
       </c>
       <c r="D12">
-        <v>1975</v>
+        <v>1094.9069999999999</v>
       </c>
       <c r="E12">
-        <v>1170</v>
+        <v>741.61800000000005</v>
       </c>
       <c r="F12">
-        <v>807</v>
+        <v>346.928</v>
       </c>
       <c r="G12">
-        <v>5237</v>
+        <v>7807.7420000000002</v>
       </c>
       <c r="H12">
-        <v>11751</v>
+        <v>9823.3790000000008</v>
       </c>
       <c r="I12">
-        <v>515</v>
+        <v>719.10299999999995</v>
       </c>
       <c r="J12">
-        <v>1946</v>
+        <v>557.16099999999994</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2202</v>
+        <v>1259.604</v>
       </c>
       <c r="O12">
-        <v>4797</v>
+        <v>1958.2860000000001</v>
       </c>
       <c r="P12">
-        <v>1946</v>
+        <v>562.00800000000004</v>
       </c>
       <c r="Q12">
-        <v>200</v>
+        <v>-142.57599999999999</v>
       </c>
       <c r="R12">
-        <v>41483</v>
+        <v>37829</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>14550</v>
       </c>
       <c r="T12">
-        <v>6954</v>
+        <v>7865.0929999999998</v>
       </c>
       <c r="U12">
-        <v>1745</v>
+        <v>1285.0450000000001</v>
       </c>
       <c r="V12">
-        <v>364</v>
+        <v>128.75700000000001</v>
       </c>
       <c r="W12">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-130</v>
+        <v>-27.16</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>6</v>
+        <v>-184.61699999999999</v>
       </c>
       <c r="AA12">
-        <v>168</v>
+        <v>-36.802</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41574</v>
+        <v>37920</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>183</v>
+        <v>15.451000000000001</v>
       </c>
       <c r="D13">
-        <v>1988</v>
+        <v>1220.998</v>
       </c>
       <c r="E13">
-        <v>1633</v>
+        <v>912.875</v>
       </c>
       <c r="F13">
-        <v>795</v>
+        <v>494.37099999999998</v>
       </c>
       <c r="G13">
-        <v>5642</v>
+        <v>8370.7729999999992</v>
       </c>
       <c r="H13">
-        <v>12043</v>
+        <v>10311.621999999999</v>
       </c>
       <c r="I13">
-        <v>582</v>
+        <v>628.51099999999997</v>
       </c>
       <c r="J13">
-        <v>1946</v>
+        <v>456.42200000000003</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2443</v>
+        <v>1640.877</v>
       </c>
       <c r="O13">
-        <v>4955</v>
+        <v>2243.5880000000002</v>
       </c>
       <c r="P13">
-        <v>1946</v>
+        <v>561.71400000000006</v>
       </c>
       <c r="Q13">
-        <v>-34</v>
+        <v>79.811999999999998</v>
       </c>
       <c r="R13">
-        <v>41574</v>
+        <v>37920</v>
       </c>
       <c r="S13">
-        <v>13700</v>
+        <v>12050</v>
       </c>
       <c r="T13">
-        <v>7088</v>
+        <v>8068.0339999999997</v>
       </c>
       <c r="U13">
-        <v>1711</v>
+        <v>1364.857</v>
       </c>
       <c r="V13">
-        <v>19</v>
+        <v>279.298</v>
       </c>
       <c r="W13">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-110</v>
+        <v>62.668999999999997</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>107</v>
+        <v>-190.46700000000001</v>
       </c>
       <c r="AA13">
-        <v>183</v>
+        <v>15.451000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41665</v>
+        <v>38018</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>253</v>
+        <v>82.376000000000005</v>
       </c>
       <c r="D14">
-        <v>2190</v>
+        <v>1555.4480000000001</v>
       </c>
       <c r="E14">
-        <v>1510</v>
+        <v>1081.1420000000001</v>
       </c>
       <c r="F14">
-        <v>891</v>
+        <v>676.16899999999998</v>
       </c>
       <c r="G14">
-        <v>6014</v>
+        <v>8779.8359999999993</v>
       </c>
       <c r="H14">
-        <v>12199</v>
+        <v>10630.978999999999</v>
       </c>
       <c r="I14">
-        <v>645</v>
+        <v>677.68299999999999</v>
       </c>
       <c r="J14">
-        <v>1946</v>
+        <v>455.815</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,81 +1885,81 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-0.60699999999999998</v>
       </c>
       <c r="N14">
-        <v>2477</v>
+        <v>1809.02</v>
       </c>
       <c r="O14">
-        <v>4958</v>
+        <v>2412.0650000000001</v>
       </c>
       <c r="P14">
-        <v>1946</v>
+        <v>561.10699999999997</v>
       </c>
       <c r="Q14">
-        <v>433</v>
+        <v>118.137</v>
       </c>
       <c r="R14">
-        <v>41665</v>
+        <v>38018</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>12870</v>
       </c>
       <c r="T14">
-        <v>7241</v>
+        <v>8218.9140000000007</v>
       </c>
       <c r="U14">
-        <v>2144</v>
+        <v>1470.471</v>
       </c>
       <c r="V14">
-        <v>372</v>
+        <v>217.29300000000001</v>
       </c>
       <c r="W14">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-92</v>
+        <v>51.033999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>201</v>
+        <v>-86.872</v>
       </c>
       <c r="AA14">
-        <v>253</v>
+        <v>82.376000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41756</v>
+        <v>38109</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>262</v>
+        <v>373.34800000000001</v>
       </c>
       <c r="D15">
-        <v>2353</v>
+        <v>2018.105</v>
       </c>
       <c r="E15">
-        <v>1615</v>
+        <v>1405.067</v>
       </c>
       <c r="F15">
-        <v>1002</v>
+        <v>938.64099999999996</v>
       </c>
       <c r="G15">
-        <v>6401</v>
+        <v>9393.357</v>
       </c>
       <c r="H15">
-        <v>12555</v>
+        <v>11207.449000000001</v>
       </c>
       <c r="I15">
-        <v>606</v>
+        <v>739.7</v>
       </c>
       <c r="J15">
-        <v>1947</v>
+        <v>454.49099999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2662</v>
+        <v>1969.7940000000001</v>
       </c>
       <c r="O15">
-        <v>5080</v>
+        <v>2571.0729999999999</v>
       </c>
       <c r="P15">
-        <v>1947</v>
+        <v>558.92200000000003</v>
       </c>
       <c r="Q15">
-        <v>309</v>
+        <v>-7.3220000000000001</v>
       </c>
       <c r="R15">
-        <v>41756</v>
+        <v>38109</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="T15">
-        <v>7475</v>
+        <v>8636.3760000000002</v>
       </c>
       <c r="U15">
-        <v>2453</v>
+        <v>1448.078</v>
       </c>
       <c r="V15">
-        <v>437</v>
+        <v>220.268</v>
       </c>
       <c r="W15">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-59</v>
+        <v>52.743000000000002</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-4</v>
+        <v>-222.08199999999999</v>
       </c>
       <c r="AA15">
-        <v>262</v>
+        <v>373.34800000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41847</v>
+        <v>38200</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>301</v>
+        <v>440.57100000000003</v>
       </c>
       <c r="D16">
-        <v>2265</v>
+        <v>2236.152</v>
       </c>
       <c r="E16">
-        <v>1622</v>
+        <v>1527.6030000000001</v>
       </c>
       <c r="F16">
-        <v>992</v>
+        <v>1059.232</v>
       </c>
       <c r="G16">
-        <v>6640</v>
+        <v>10141.442999999999</v>
       </c>
       <c r="H16">
-        <v>12851</v>
+        <v>11918.468999999999</v>
       </c>
       <c r="I16">
-        <v>583</v>
+        <v>859.875</v>
       </c>
       <c r="J16">
-        <v>1947</v>
+        <v>454.49099999999999</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2755</v>
+        <v>2206.8519999999999</v>
       </c>
       <c r="O16">
-        <v>5167</v>
+        <v>2815.056</v>
       </c>
       <c r="P16">
-        <v>1947</v>
+        <v>558.32000000000005</v>
       </c>
       <c r="Q16">
-        <v>273</v>
+        <v>608.59699999999998</v>
       </c>
       <c r="R16">
-        <v>41847</v>
+        <v>38200</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>7684</v>
+        <v>9103.4130000000005</v>
       </c>
       <c r="U16">
-        <v>2726</v>
+        <v>2047.442</v>
       </c>
       <c r="V16">
-        <v>584</v>
+        <v>682.63599999999997</v>
       </c>
       <c r="W16">
-        <v>-121</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-119</v>
+        <v>34.093000000000004</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-127</v>
+        <v>-73.793999999999997</v>
       </c>
       <c r="AA16">
-        <v>301</v>
+        <v>440.57100000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41938</v>
+        <v>38291</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>256</v>
+        <v>455.00799999999998</v>
       </c>
       <c r="D17">
-        <v>2264</v>
+        <v>2203.348</v>
       </c>
       <c r="E17">
-        <v>1670</v>
+        <v>1670.153</v>
       </c>
       <c r="F17">
-        <v>959</v>
+        <v>1027.203</v>
       </c>
       <c r="G17">
-        <v>6967</v>
+        <v>10281.519</v>
       </c>
       <c r="H17">
-        <v>13174</v>
+        <v>12093.445</v>
       </c>
       <c r="I17">
-        <v>613</v>
+        <v>719.87400000000002</v>
       </c>
       <c r="J17">
-        <v>1947</v>
+        <v>410.43599999999998</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,161 +2137,161 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2823</v>
+        <v>2287.9810000000002</v>
       </c>
       <c r="O17">
-        <v>5306</v>
+        <v>2831.4180000000001</v>
       </c>
       <c r="P17">
-        <v>1947</v>
+        <v>456.3</v>
       </c>
       <c r="Q17">
-        <v>276</v>
+        <v>16.48</v>
       </c>
       <c r="R17">
-        <v>41938</v>
+        <v>38291</v>
       </c>
       <c r="S17">
-        <v>14000</v>
+        <v>12191</v>
       </c>
       <c r="T17">
-        <v>7868</v>
+        <v>9262.027</v>
       </c>
       <c r="U17">
-        <v>3002</v>
+        <v>1493.2919999999999</v>
       </c>
       <c r="V17">
-        <v>407</v>
+        <v>507.07400000000001</v>
       </c>
       <c r="W17">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-78</v>
+        <v>-496.67399999999998</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-3</v>
+        <v>46.868000000000002</v>
       </c>
       <c r="AA17">
-        <v>256</v>
+        <v>455.00799999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42029</v>
+        <v>38382</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>348</v>
+        <v>288.76499999999999</v>
       </c>
       <c r="D18">
-        <v>2359</v>
+        <v>1780.576</v>
       </c>
       <c r="E18">
-        <v>1580</v>
+        <v>1740.874</v>
       </c>
       <c r="F18">
-        <v>959</v>
+        <v>790.22500000000002</v>
       </c>
       <c r="G18">
-        <v>6933</v>
+        <v>10200.599</v>
       </c>
       <c r="H18">
-        <v>13073</v>
+        <v>12098.549000000001</v>
       </c>
       <c r="I18">
-        <v>650</v>
+        <v>705.64800000000002</v>
       </c>
       <c r="J18">
-        <v>1947</v>
+        <v>416.24400000000003</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-13.29</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-0.46300000000000002</v>
       </c>
       <c r="N18">
-        <v>2521</v>
+        <v>2222.3589999999999</v>
       </c>
       <c r="O18">
-        <v>5001</v>
+        <v>2798.7150000000001</v>
       </c>
       <c r="P18">
-        <v>1947</v>
+        <v>462.916</v>
       </c>
       <c r="Q18">
-        <v>-73</v>
+        <v>-58.408000000000001</v>
       </c>
       <c r="R18">
-        <v>42029</v>
+        <v>38382</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>8072</v>
+        <v>9299.8340000000007</v>
       </c>
       <c r="U18">
-        <v>2929</v>
+        <v>1634.4839999999999</v>
       </c>
       <c r="V18">
-        <v>60</v>
+        <v>236.98400000000001</v>
       </c>
       <c r="W18">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-83</v>
+        <v>-265.99599999999998</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>113.625</v>
       </c>
       <c r="AA18">
-        <v>348</v>
+        <v>288.76499999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42120</v>
+        <v>38473</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>364</v>
+        <v>304.83</v>
       </c>
       <c r="D19">
-        <v>2442</v>
+        <v>1861.1890000000001</v>
       </c>
       <c r="E19">
-        <v>1798</v>
+        <v>1595.402</v>
       </c>
       <c r="F19">
-        <v>1016</v>
+        <v>818.43</v>
       </c>
       <c r="G19">
-        <v>7447</v>
+        <v>10004.941999999999</v>
       </c>
       <c r="H19">
-        <v>13587</v>
+        <v>11916.157999999999</v>
       </c>
       <c r="I19">
-        <v>647</v>
+        <v>700.84799999999996</v>
       </c>
       <c r="J19">
-        <v>1947</v>
+        <v>414.30200000000002</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2696</v>
+        <v>2162.08</v>
       </c>
       <c r="O19">
-        <v>5236</v>
+        <v>2734.2139999999999</v>
       </c>
       <c r="P19">
-        <v>1947</v>
+        <v>460.76799999999997</v>
       </c>
       <c r="Q19">
-        <v>138</v>
+        <v>228.86500000000001</v>
       </c>
       <c r="R19">
-        <v>42120</v>
+        <v>38473</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>8351</v>
+        <v>9181.9439999999995</v>
       </c>
       <c r="U19">
-        <v>3067</v>
+        <v>1663.749</v>
       </c>
       <c r="V19">
-        <v>298</v>
+        <v>466.64800000000002</v>
       </c>
       <c r="W19">
-        <v>-123</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-69</v>
+        <v>-419.54700000000003</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-26</v>
+        <v>217.92599999999999</v>
       </c>
       <c r="AA19">
-        <v>364</v>
+        <v>304.83</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42211</v>
+        <v>38564</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>329</v>
+        <v>369.59100000000001</v>
       </c>
       <c r="D20">
-        <v>2490</v>
+        <v>1631.9380000000001</v>
       </c>
       <c r="E20">
-        <v>1991</v>
+        <v>1525.133</v>
       </c>
       <c r="F20">
-        <v>1052</v>
+        <v>717.08900000000006</v>
       </c>
       <c r="G20">
-        <v>7043</v>
+        <v>9744.4689999999991</v>
       </c>
       <c r="H20">
-        <v>13153</v>
+        <v>11618.648999999999</v>
       </c>
       <c r="I20">
-        <v>693</v>
+        <v>731.43100000000004</v>
       </c>
       <c r="J20">
-        <v>1547</v>
+        <v>414.29</v>
       </c>
       <c r="K20">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3020</v>
+        <v>1977.319</v>
       </c>
       <c r="O20">
-        <v>5176</v>
+        <v>2547.0039999999999</v>
       </c>
       <c r="P20">
-        <v>1947</v>
+        <v>460.45499999999998</v>
       </c>
       <c r="Q20">
-        <v>-493</v>
+        <v>-408.00299999999999</v>
       </c>
       <c r="R20">
-        <v>42211</v>
+        <v>38564</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>7977</v>
+        <v>9071.6450000000004</v>
       </c>
       <c r="U20">
-        <v>2574</v>
+        <v>1255.7460000000001</v>
       </c>
       <c r="V20">
-        <v>334</v>
+        <v>345.73</v>
       </c>
       <c r="W20">
-        <v>-123</v>
+        <v>-49.33</v>
       </c>
       <c r="X20">
-        <v>-744</v>
+        <v>-464.24900000000002</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-33</v>
+        <v>-230.30699999999999</v>
       </c>
       <c r="AA20">
-        <v>329</v>
+        <v>369.59100000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42302</v>
+        <v>38655</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>336</v>
+        <v>246.714</v>
       </c>
       <c r="D21">
-        <v>2368</v>
+        <v>1718.12</v>
       </c>
       <c r="E21">
-        <v>1739</v>
+        <v>1615.5039999999999</v>
       </c>
       <c r="F21">
-        <v>960</v>
+        <v>760.13</v>
       </c>
       <c r="G21">
-        <v>9261</v>
+        <v>6835.0770000000002</v>
       </c>
       <c r="H21">
-        <v>15308</v>
+        <v>11269.156999999999</v>
       </c>
       <c r="I21">
-        <v>658</v>
+        <v>509.41800000000001</v>
       </c>
       <c r="J21">
-        <v>3342</v>
+        <v>407.38</v>
       </c>
       <c r="K21">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,161 +2469,161 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3798</v>
+        <v>1765.414</v>
       </c>
       <c r="O21">
-        <v>7695</v>
+        <v>2340.6080000000002</v>
       </c>
       <c r="P21">
-        <v>4542</v>
+        <v>414.95400000000001</v>
       </c>
       <c r="Q21">
-        <v>2223</v>
+        <v>-265.404</v>
       </c>
       <c r="R21">
-        <v>42302</v>
+        <v>38655</v>
       </c>
       <c r="S21">
-        <v>14600</v>
+        <v>12576</v>
       </c>
       <c r="T21">
-        <v>7613</v>
+        <v>8928.5490000000009</v>
       </c>
       <c r="U21">
-        <v>4797</v>
+        <v>990.34199999999998</v>
       </c>
       <c r="V21">
-        <v>471</v>
+        <v>197.77799999999999</v>
       </c>
       <c r="W21">
-        <v>-119</v>
+        <v>-48.71</v>
       </c>
       <c r="X21">
-        <v>1809</v>
+        <v>-421.35899999999998</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-2</v>
+        <v>21.076000000000001</v>
       </c>
       <c r="AA21">
-        <v>336</v>
+        <v>246.714</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42400</v>
+        <v>38746</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>286</v>
+        <v>142.78</v>
       </c>
       <c r="D22">
-        <v>2257</v>
+        <v>1857.5920000000001</v>
       </c>
       <c r="E22">
-        <v>1625</v>
+        <v>1754.5450000000001</v>
       </c>
       <c r="F22">
-        <v>915</v>
+        <v>837.69899999999996</v>
       </c>
       <c r="G22">
-        <v>6910</v>
+        <v>9541.3950000000004</v>
       </c>
       <c r="H22">
-        <v>13326</v>
+        <v>11209.907999999999</v>
       </c>
       <c r="I22">
-        <v>549</v>
+        <v>726.42600000000004</v>
       </c>
       <c r="J22">
-        <v>3343</v>
+        <v>407.38</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-5.0069999999999997</v>
       </c>
       <c r="M22">
-        <v>-1205</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2307</v>
+        <v>1878.5029999999999</v>
       </c>
       <c r="O22">
-        <v>6158</v>
+        <v>2542.3290000000002</v>
       </c>
       <c r="P22">
-        <v>3343</v>
+        <v>409.947</v>
       </c>
       <c r="Q22">
-        <v>-1835</v>
+        <v>116.95699999999999</v>
       </c>
       <c r="R22">
-        <v>42400</v>
+        <v>38746</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>7168</v>
+        <v>8667.5789999999997</v>
       </c>
       <c r="U22">
-        <v>2962</v>
+        <v>1107.299</v>
       </c>
       <c r="V22">
-        <v>207</v>
+        <v>419.18</v>
       </c>
       <c r="W22">
-        <v>-115</v>
+        <v>-48.235999999999997</v>
       </c>
       <c r="X22">
-        <v>-1933</v>
+        <v>-478.00099999999998</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-41</v>
+        <v>242.852</v>
       </c>
       <c r="AA22">
-        <v>286</v>
+        <v>142.78</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42491</v>
+        <v>38837</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>320</v>
+        <v>412.81400000000002</v>
       </c>
       <c r="D23">
-        <v>2450</v>
+        <v>2247.6860000000001</v>
       </c>
       <c r="E23">
-        <v>1913</v>
+        <v>1948.873</v>
       </c>
       <c r="F23">
-        <v>1004</v>
+        <v>1044.625</v>
       </c>
       <c r="G23">
-        <v>6728</v>
+        <v>7335.6229999999996</v>
       </c>
       <c r="H23">
-        <v>13075</v>
+        <v>11451.755999999999</v>
       </c>
       <c r="I23">
-        <v>644</v>
+        <v>877.06799999999998</v>
       </c>
       <c r="J23">
-        <v>3343</v>
+        <v>406.90499999999997</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2611</v>
+        <v>2187.529</v>
       </c>
       <c r="O23">
-        <v>6510</v>
+        <v>2833.0859999999998</v>
       </c>
       <c r="P23">
-        <v>3343</v>
+        <v>409.447</v>
       </c>
       <c r="Q23">
-        <v>-492</v>
+        <v>269.38099999999997</v>
       </c>
       <c r="R23">
-        <v>42491</v>
+        <v>38837</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>6565</v>
+        <v>8618.67</v>
       </c>
       <c r="U23">
-        <v>2470</v>
+        <v>1376.68</v>
       </c>
       <c r="V23">
-        <v>481</v>
+        <v>511.74299999999999</v>
       </c>
       <c r="W23">
-        <v>-113</v>
+        <v>-47.625</v>
       </c>
       <c r="X23">
-        <v>-968</v>
+        <v>-465.04700000000003</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>50</v>
+        <v>256.05200000000002</v>
       </c>
       <c r="AA23">
-        <v>320</v>
+        <v>412.81400000000002</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42582</v>
+        <v>38928</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>505</v>
+        <v>512.04</v>
       </c>
       <c r="D24">
-        <v>2821</v>
+        <v>2543.4430000000002</v>
       </c>
       <c r="E24">
-        <v>1852</v>
+        <v>2294.3180000000002</v>
       </c>
       <c r="F24">
-        <v>1191</v>
+        <v>1223.354</v>
       </c>
       <c r="G24">
-        <v>7399</v>
+        <v>7407.6790000000001</v>
       </c>
       <c r="H24">
-        <v>13699</v>
+        <v>11773.857</v>
       </c>
       <c r="I24">
-        <v>717</v>
+        <v>788.95299999999997</v>
       </c>
       <c r="J24">
-        <v>3343</v>
+        <v>406.97</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2964</v>
+        <v>2431.8069999999998</v>
       </c>
       <c r="O24">
-        <v>6880</v>
+        <v>3107.913</v>
       </c>
       <c r="P24">
-        <v>3343</v>
+        <v>409.52</v>
       </c>
       <c r="Q24">
-        <v>358</v>
+        <v>-68.222999999999999</v>
       </c>
       <c r="R24">
-        <v>42582</v>
+        <v>38928</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>6819</v>
+        <v>8665.9439999999995</v>
       </c>
       <c r="U24">
-        <v>2828</v>
+        <v>1308.4570000000001</v>
       </c>
       <c r="V24">
-        <v>981</v>
+        <v>375.58300000000003</v>
       </c>
       <c r="W24">
-        <v>-108</v>
+        <v>-78.207999999999998</v>
       </c>
       <c r="X24">
-        <v>-301</v>
+        <v>-561.346</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-275</v>
+        <v>450.31200000000001</v>
       </c>
       <c r="AA24">
-        <v>505</v>
+        <v>512.04</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42673</v>
+        <v>39019</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>610</v>
+        <v>449.029</v>
       </c>
       <c r="D25">
-        <v>3297</v>
+        <v>2518.2930000000001</v>
       </c>
       <c r="E25">
-        <v>2279</v>
+        <v>2026.1990000000001</v>
       </c>
       <c r="F25">
-        <v>1399</v>
+        <v>1186.124</v>
       </c>
       <c r="G25">
-        <v>8353</v>
+        <v>6081.0190000000002</v>
       </c>
       <c r="H25">
-        <v>14570</v>
+        <v>9480.8369999999995</v>
       </c>
       <c r="I25">
-        <v>813</v>
+        <v>722.08199999999999</v>
       </c>
       <c r="J25">
-        <v>3125</v>
+        <v>204.708</v>
       </c>
       <c r="K25">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3632</v>
+        <v>2436.0450000000001</v>
       </c>
       <c r="O25">
-        <v>7353</v>
+        <v>2829.4369999999999</v>
       </c>
       <c r="P25">
-        <v>3325</v>
+        <v>407.24299999999999</v>
       </c>
       <c r="Q25">
-        <v>578</v>
+        <v>-446.99400000000003</v>
       </c>
       <c r="R25">
-        <v>42673</v>
+        <v>39019</v>
       </c>
       <c r="S25">
-        <v>15600</v>
+        <v>14072</v>
       </c>
       <c r="T25">
-        <v>7217</v>
+        <v>6651.4</v>
       </c>
       <c r="U25">
-        <v>3406</v>
+        <v>861.46299999999997</v>
       </c>
       <c r="V25">
-        <v>797</v>
+        <v>670.61199999999997</v>
       </c>
       <c r="W25">
-        <v>-108</v>
+        <v>-76.712999999999994</v>
       </c>
       <c r="X25">
-        <v>-230</v>
+        <v>-2551.0529999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>110</v>
+        <v>1500.2760000000001</v>
       </c>
       <c r="AA25">
-        <v>610</v>
+        <v>449.029</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42764</v>
+        <v>39110</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>703</v>
+        <v>403.476</v>
       </c>
       <c r="D26">
-        <v>3278</v>
+        <v>2277.2669999999998</v>
       </c>
       <c r="E26">
-        <v>2369</v>
+        <v>2051.6060000000002</v>
       </c>
       <c r="F26">
-        <v>1445</v>
+        <v>1062.538</v>
       </c>
       <c r="G26">
-        <v>9094</v>
+        <v>6405.585</v>
       </c>
       <c r="H26">
-        <v>15244</v>
+        <v>9808.0030000000006</v>
       </c>
       <c r="I26">
-        <v>867</v>
+        <v>736.70100000000002</v>
       </c>
       <c r="J26">
-        <v>3125</v>
+        <v>204.69200000000001</v>
       </c>
       <c r="K26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3808</v>
+        <v>2444.1959999999999</v>
       </c>
       <c r="O26">
-        <v>7557</v>
+        <v>2841.2919999999999</v>
       </c>
       <c r="P26">
-        <v>3325</v>
+        <v>407.21300000000002</v>
       </c>
       <c r="Q26">
-        <v>85</v>
+        <v>207.15199999999999</v>
       </c>
       <c r="R26">
-        <v>42764</v>
+        <v>39110</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>7687</v>
+        <v>6966.7110000000002</v>
       </c>
       <c r="U26">
-        <v>3491</v>
+        <v>1068.615</v>
       </c>
       <c r="V26">
-        <v>792</v>
+        <v>381.197</v>
       </c>
       <c r="W26">
-        <v>-108</v>
+        <v>-69.614000000000004</v>
       </c>
       <c r="X26">
-        <v>-340</v>
+        <v>-126.53700000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-303</v>
+        <v>1.4890000000000001</v>
       </c>
       <c r="AA26">
-        <v>703</v>
+        <v>403.476</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42855</v>
+        <v>39201</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>824</v>
+        <v>411.44400000000002</v>
       </c>
       <c r="D27">
-        <v>3546</v>
+        <v>2529.5610000000001</v>
       </c>
       <c r="E27">
-        <v>2381</v>
+        <v>2121.817</v>
       </c>
       <c r="F27">
-        <v>1600</v>
+        <v>1136.6099999999999</v>
       </c>
       <c r="G27">
-        <v>12018</v>
+        <v>6358.9920000000002</v>
       </c>
       <c r="H27">
-        <v>18240</v>
+        <v>9896.223</v>
       </c>
       <c r="I27">
-        <v>929</v>
+        <v>733.35400000000004</v>
       </c>
       <c r="J27">
-        <v>5302</v>
+        <v>204.34100000000001</v>
       </c>
       <c r="K27">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>4097</v>
+        <v>2458.0540000000001</v>
       </c>
       <c r="O27">
-        <v>10028</v>
+        <v>2858.4830000000002</v>
       </c>
       <c r="P27">
-        <v>5502</v>
+        <v>406.87599999999998</v>
       </c>
       <c r="Q27">
-        <v>1453</v>
+        <v>-136.571</v>
       </c>
       <c r="R27">
-        <v>42855</v>
+        <v>39201</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>8212</v>
+        <v>7037.74</v>
       </c>
       <c r="U27">
-        <v>4944</v>
+        <v>932.04399999999998</v>
       </c>
       <c r="V27">
-        <v>911</v>
+        <v>513.13400000000001</v>
       </c>
       <c r="W27">
-        <v>-108</v>
+        <v>-69.875</v>
       </c>
       <c r="X27">
-        <v>1823</v>
+        <v>-372.142</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-1178</v>
+        <v>-85.781999999999996</v>
       </c>
       <c r="AA27">
-        <v>824</v>
+        <v>411.44400000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42946</v>
+        <v>39292</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>925</v>
+        <v>473.51499999999999</v>
       </c>
       <c r="D28">
-        <v>3744</v>
+        <v>2560.9839999999999</v>
       </c>
       <c r="E28">
-        <v>2258</v>
+        <v>2240.29</v>
       </c>
       <c r="F28">
-        <v>1700</v>
+        <v>1216.3900000000001</v>
       </c>
       <c r="G28">
-        <v>12731</v>
+        <v>6811.4350000000004</v>
       </c>
       <c r="H28">
-        <v>19078</v>
+        <v>10365.383</v>
       </c>
       <c r="I28">
-        <v>935</v>
+        <v>730.73199999999997</v>
       </c>
       <c r="J28">
-        <v>5303</v>
+        <v>204.35400000000001</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4371</v>
+        <v>2548.7629999999999</v>
       </c>
       <c r="O28">
-        <v>10362</v>
+        <v>2977.2460000000001</v>
       </c>
       <c r="P28">
-        <v>5303</v>
+        <v>406.88200000000001</v>
       </c>
       <c r="Q28">
-        <v>334</v>
+        <v>180.631</v>
       </c>
       <c r="R28">
-        <v>42946</v>
+        <v>39292</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>8716</v>
+        <v>7388.1369999999997</v>
       </c>
       <c r="U28">
-        <v>5278</v>
+        <v>1112.675</v>
       </c>
       <c r="V28">
-        <v>1377</v>
+        <v>637.56700000000001</v>
       </c>
       <c r="W28">
-        <v>-107</v>
+        <v>-83.048000000000002</v>
       </c>
       <c r="X28">
-        <v>-694</v>
+        <v>-202.67099999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-239</v>
+        <v>-177.89599999999999</v>
       </c>
       <c r="AA28">
-        <v>925</v>
+        <v>473.51499999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43037</v>
+        <v>39383</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>982</v>
+        <v>421.76100000000002</v>
       </c>
       <c r="D29">
-        <v>3969</v>
+        <v>2367.0439999999999</v>
       </c>
       <c r="E29">
-        <v>2338</v>
+        <v>2049.4270000000001</v>
       </c>
       <c r="F29">
-        <v>1787</v>
+        <v>1132.905</v>
       </c>
       <c r="G29">
-        <v>12918</v>
+        <v>6607.5929999999998</v>
       </c>
       <c r="H29">
-        <v>19419</v>
+        <v>10662.278</v>
       </c>
       <c r="I29">
-        <v>945</v>
+        <v>455.89400000000001</v>
       </c>
       <c r="J29">
-        <v>5304</v>
+        <v>202.28100000000001</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4115</v>
+        <v>2381.6260000000002</v>
       </c>
       <c r="O29">
-        <v>10070</v>
+        <v>2840.8690000000001</v>
       </c>
       <c r="P29">
-        <v>5304</v>
+        <v>204.84200000000001</v>
       </c>
       <c r="Q29">
-        <v>-268</v>
+        <v>90.046999999999997</v>
       </c>
       <c r="R29">
-        <v>43037</v>
+        <v>39383</v>
       </c>
       <c r="S29">
-        <v>18400</v>
+        <v>14550</v>
       </c>
       <c r="T29">
-        <v>9349</v>
+        <v>7821.4089999999997</v>
       </c>
       <c r="U29">
-        <v>5010</v>
+        <v>1202.722</v>
       </c>
       <c r="V29">
-        <v>709</v>
+        <v>677.39800000000002</v>
       </c>
       <c r="W29">
-        <v>-107</v>
+        <v>-83.135000000000005</v>
       </c>
       <c r="X29">
-        <v>-448</v>
+        <v>-190.63900000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-393</v>
+        <v>112.402</v>
       </c>
       <c r="AA29">
-        <v>982</v>
+        <v>421.76100000000002</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43128</v>
+        <v>39474</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>165</v>
+        <v>262.37599999999998</v>
       </c>
       <c r="D30">
-        <v>4205</v>
+        <v>2087.3969999999999</v>
       </c>
       <c r="E30">
-        <v>2182</v>
+        <v>2014.501</v>
       </c>
       <c r="F30">
-        <v>1940</v>
+        <v>934.98099999999999</v>
       </c>
       <c r="G30">
-        <v>13029</v>
+        <v>6191.8059999999996</v>
       </c>
       <c r="H30">
-        <v>19663</v>
+        <v>10352.487999999999</v>
       </c>
       <c r="I30">
-        <v>1041</v>
+        <v>774.53</v>
       </c>
       <c r="J30">
-        <v>5305</v>
+        <v>202.476</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>4399</v>
+        <v>2353.4699999999998</v>
       </c>
       <c r="O30">
-        <v>11157</v>
+        <v>2893.7570000000001</v>
       </c>
       <c r="P30">
-        <v>5305</v>
+        <v>205.15</v>
       </c>
       <c r="Q30">
-        <v>1789</v>
+        <v>12.927</v>
       </c>
       <c r="R30">
-        <v>43128</v>
+        <v>39474</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>8506</v>
+        <v>7458.7309999999998</v>
       </c>
       <c r="U30">
-        <v>6799</v>
+        <v>1215.6489999999999</v>
       </c>
       <c r="V30">
-        <v>1466</v>
+        <v>389.73099999999999</v>
       </c>
       <c r="W30">
-        <v>-106</v>
+        <v>-83.067999999999998</v>
       </c>
       <c r="X30">
-        <v>-1029</v>
+        <v>-667.04399999999998</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>1560</v>
+        <v>383.24700000000001</v>
       </c>
       <c r="AA30">
-        <v>165</v>
+        <v>262.37599999999998</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43219</v>
+        <v>39565</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1100</v>
+        <v>302.50700000000001</v>
       </c>
       <c r="D31">
-        <v>4579</v>
+        <v>2149.998</v>
       </c>
       <c r="E31">
-        <v>2665</v>
+        <v>1729.4870000000001</v>
       </c>
       <c r="F31">
-        <v>2056</v>
+        <v>966.82799999999997</v>
       </c>
       <c r="G31">
-        <v>11891</v>
+        <v>6606.9380000000001</v>
       </c>
       <c r="H31">
-        <v>18498</v>
+        <v>10970.95</v>
       </c>
       <c r="I31">
-        <v>1164</v>
+        <v>835.59900000000005</v>
       </c>
       <c r="J31">
-        <v>5306</v>
+        <v>202</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>4580</v>
+        <v>2707.4250000000002</v>
       </c>
       <c r="O31">
-        <v>11456</v>
+        <v>3260.1460000000002</v>
       </c>
       <c r="P31">
-        <v>5306</v>
+        <v>204.749</v>
       </c>
       <c r="Q31">
-        <v>-1929</v>
+        <v>-117.39</v>
       </c>
       <c r="R31">
-        <v>43219</v>
+        <v>39565</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>7042</v>
+        <v>7710.8040000000001</v>
       </c>
       <c r="U31">
-        <v>4870</v>
+        <v>1098.259</v>
       </c>
       <c r="V31">
-        <v>611</v>
+        <v>874.00199999999995</v>
       </c>
       <c r="W31">
-        <v>-105</v>
+        <v>-81.206000000000003</v>
       </c>
       <c r="X31">
-        <v>-2562</v>
+        <v>-83.356999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>143</v>
+        <v>-628.16999999999996</v>
       </c>
       <c r="AA31">
-        <v>1100</v>
+        <v>302.50700000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43310</v>
+        <v>39656</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1016</v>
+        <v>164.768</v>
       </c>
       <c r="D32">
-        <v>4162</v>
+        <v>1848.1679999999999</v>
       </c>
       <c r="E32">
-        <v>2882</v>
+        <v>1581.213</v>
       </c>
       <c r="F32">
-        <v>1864</v>
+        <v>742.31399999999996</v>
       </c>
       <c r="G32">
-        <v>10889</v>
+        <v>6623.875</v>
       </c>
       <c r="H32">
-        <v>17883</v>
+        <v>10998.441000000001</v>
       </c>
       <c r="I32">
-        <v>1094</v>
+        <v>849.428</v>
       </c>
       <c r="J32">
-        <v>5308</v>
+        <v>201.92599999999999</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>4322</v>
+        <v>2911.3760000000002</v>
       </c>
       <c r="O32">
-        <v>11058</v>
+        <v>3457.6460000000002</v>
       </c>
       <c r="P32">
-        <v>5308</v>
+        <v>202.90700000000001</v>
       </c>
       <c r="Q32">
-        <v>-1496</v>
+        <v>42.273000000000003</v>
       </c>
       <c r="R32">
-        <v>43310</v>
+        <v>39656</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>6825</v>
+        <v>7540.7950000000001</v>
       </c>
       <c r="U32">
-        <v>3374</v>
+        <v>1140.5319999999999</v>
       </c>
       <c r="V32">
-        <v>633</v>
+        <v>320.41800000000001</v>
       </c>
       <c r="W32">
-        <v>-199</v>
+        <v>-81.284999999999997</v>
       </c>
       <c r="X32">
-        <v>-1455</v>
+        <v>-357.01499999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-541</v>
+        <v>150.726</v>
       </c>
       <c r="AA32">
-        <v>1016</v>
+        <v>164.768</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43401</v>
+        <v>39747</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>757</v>
+        <v>231.095</v>
       </c>
       <c r="D33">
-        <v>3759</v>
+        <v>2043.6769999999999</v>
       </c>
       <c r="E33">
-        <v>2422</v>
+        <v>1691.027</v>
       </c>
       <c r="F33">
-        <v>1657</v>
+        <v>798.70500000000004</v>
       </c>
       <c r="G33">
-        <v>10604</v>
+        <v>6664.1570000000002</v>
       </c>
       <c r="H33">
-        <v>17633</v>
+        <v>11006.317999999999</v>
       </c>
       <c r="I33">
-        <v>996</v>
+        <v>588.255</v>
       </c>
       <c r="J33">
-        <v>5309</v>
+        <v>201.57599999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3922</v>
+        <v>2945.5520000000001</v>
       </c>
       <c r="O33">
-        <v>10788</v>
+        <v>3457.36</v>
       </c>
       <c r="P33">
-        <v>5309</v>
+        <v>202.64400000000001</v>
       </c>
       <c r="Q33">
-        <v>66</v>
+        <v>271.09199999999998</v>
       </c>
       <c r="R33">
-        <v>43401</v>
+        <v>39747</v>
       </c>
       <c r="S33">
-        <v>21000</v>
+        <v>14824</v>
       </c>
       <c r="T33">
-        <v>6845</v>
+        <v>7548.9579999999996</v>
       </c>
       <c r="U33">
-        <v>3440</v>
+        <v>1411.624</v>
       </c>
       <c r="V33">
-        <v>1077</v>
+        <v>126.31699999999999</v>
       </c>
       <c r="W33">
-        <v>-195</v>
+        <v>-79.846000000000004</v>
       </c>
       <c r="X33">
-        <v>-882</v>
+        <v>-318.62099999999998</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>37</v>
+        <v>499.23099999999999</v>
       </c>
       <c r="AA33">
-        <v>757</v>
+        <v>231.095</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43492</v>
+        <v>39838</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>771</v>
+        <v>-132.934</v>
       </c>
       <c r="D34">
-        <v>3753</v>
+        <v>1333.396</v>
       </c>
       <c r="E34">
-        <v>2544</v>
+        <v>1274.8530000000001</v>
       </c>
       <c r="F34">
-        <v>1665</v>
+        <v>391.57600000000002</v>
       </c>
       <c r="G34">
-        <v>10285</v>
+        <v>6279.6679999999997</v>
       </c>
       <c r="H34">
-        <v>18922</v>
+        <v>10427.602999999999</v>
       </c>
       <c r="I34">
-        <v>978</v>
+        <v>447.71199999999999</v>
       </c>
       <c r="J34">
-        <v>5310</v>
+        <v>201.89500000000001</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3776</v>
+        <v>2529.7310000000002</v>
       </c>
       <c r="O34">
-        <v>10713</v>
+        <v>3070.9319999999998</v>
       </c>
       <c r="P34">
-        <v>5310</v>
+        <v>203.154</v>
       </c>
       <c r="Q34">
-        <v>-248</v>
+        <v>-45.427999999999997</v>
       </c>
       <c r="R34">
-        <v>43492</v>
+        <v>39838</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>8209</v>
+        <v>7356.6710000000003</v>
       </c>
       <c r="U34">
-        <v>3192</v>
+        <v>1366.1959999999999</v>
       </c>
       <c r="V34">
-        <v>834</v>
+        <v>-185.21700000000001</v>
       </c>
       <c r="W34">
-        <v>-192</v>
+        <v>-79.762</v>
       </c>
       <c r="X34">
-        <v>-1016</v>
+        <v>-101.976</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>67</v>
+        <v>314.34100000000001</v>
       </c>
       <c r="AA34">
-        <v>771</v>
+        <v>-132.934</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43583</v>
+        <v>39929</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>666</v>
+        <v>-255.39</v>
       </c>
       <c r="D35">
-        <v>3539</v>
+        <v>1020.077</v>
       </c>
       <c r="E35">
-        <v>2375</v>
+        <v>914.39200000000005</v>
       </c>
       <c r="F35">
-        <v>1530</v>
+        <v>155.51900000000001</v>
       </c>
       <c r="G35">
-        <v>10062</v>
+        <v>5914.8059999999996</v>
       </c>
       <c r="H35">
-        <v>18775</v>
+        <v>9749.0990000000002</v>
       </c>
       <c r="I35">
-        <v>903</v>
+        <v>354.197</v>
       </c>
       <c r="J35">
-        <v>5311</v>
+        <v>201.16499999999999</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>3605</v>
+        <v>2132.8330000000001</v>
       </c>
       <c r="O35">
-        <v>10574</v>
+        <v>2653.2</v>
       </c>
       <c r="P35">
-        <v>5311</v>
+        <v>202.321</v>
       </c>
       <c r="Q35">
-        <v>-76</v>
+        <v>100.78</v>
       </c>
       <c r="R35">
-        <v>43583</v>
+        <v>39929</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>8201</v>
+        <v>7095.8990000000003</v>
       </c>
       <c r="U35">
-        <v>3116</v>
+        <v>1466.9760000000001</v>
       </c>
       <c r="V35">
-        <v>800</v>
+        <v>84.3</v>
       </c>
       <c r="W35">
-        <v>-189</v>
+        <v>-79.974000000000004</v>
       </c>
       <c r="X35">
-        <v>-747</v>
+        <v>-53.356000000000002</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>12</v>
+        <v>124.617</v>
       </c>
       <c r="AA35">
-        <v>666</v>
+        <v>-255.39</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43674</v>
+        <v>40020</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>571</v>
+        <v>-54.865000000000002</v>
       </c>
       <c r="D36">
-        <v>3562</v>
+        <v>1133.74</v>
       </c>
       <c r="E36">
-        <v>2489</v>
+        <v>842.16899999999998</v>
       </c>
       <c r="F36">
-        <v>1557</v>
+        <v>324.87400000000002</v>
       </c>
       <c r="G36">
-        <v>10042</v>
+        <v>5764.7920000000004</v>
       </c>
       <c r="H36">
-        <v>18805</v>
+        <v>9580.2810000000009</v>
       </c>
       <c r="I36">
-        <v>890</v>
+        <v>398.541</v>
       </c>
       <c r="J36">
-        <v>5312</v>
+        <v>201.2</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3785</v>
+        <v>2038.9829999999999</v>
       </c>
       <c r="O36">
-        <v>10689</v>
+        <v>2566.672</v>
       </c>
       <c r="P36">
-        <v>5312</v>
+        <v>202.40299999999999</v>
       </c>
       <c r="Q36">
-        <v>-102</v>
+        <v>88.494</v>
       </c>
       <c r="R36">
-        <v>43674</v>
+        <v>40020</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>8116</v>
+        <v>7013.6090000000004</v>
       </c>
       <c r="U36">
-        <v>3014</v>
+        <v>1555.47</v>
       </c>
       <c r="V36">
-        <v>787</v>
+        <v>193.71299999999999</v>
       </c>
       <c r="W36">
-        <v>-196</v>
+        <v>-80.02</v>
       </c>
       <c r="X36">
-        <v>-727</v>
+        <v>-78.165000000000006</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-64</v>
+        <v>32.651000000000003</v>
       </c>
       <c r="AA36">
-        <v>571</v>
+        <v>-54.865000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43765</v>
+        <v>40111</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>698</v>
+        <v>137.86199999999999</v>
       </c>
       <c r="D37">
-        <v>3754</v>
+        <v>1526.394</v>
       </c>
       <c r="E37">
-        <v>2641</v>
+        <v>1041.4949999999999</v>
       </c>
       <c r="F37">
-        <v>1634</v>
+        <v>558.83600000000001</v>
       </c>
       <c r="G37">
-        <v>10206</v>
+        <v>5688.9470000000001</v>
       </c>
       <c r="H37">
-        <v>19024</v>
+        <v>9574.2430000000004</v>
       </c>
       <c r="I37">
-        <v>958</v>
+        <v>477.14800000000002</v>
       </c>
       <c r="J37">
-        <v>4713</v>
+        <v>200.654</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4447</v>
+        <v>1939.4570000000001</v>
       </c>
       <c r="O37">
-        <v>10810</v>
+        <v>2479.6350000000002</v>
       </c>
       <c r="P37">
-        <v>5313</v>
+        <v>201.89400000000001</v>
       </c>
       <c r="Q37">
-        <v>115</v>
+        <v>20.911000000000001</v>
       </c>
       <c r="R37">
-        <v>43765</v>
+        <v>40111</v>
       </c>
       <c r="S37">
-        <v>22000</v>
+        <v>12619</v>
       </c>
       <c r="T37">
-        <v>8214</v>
+        <v>7094.6080000000002</v>
       </c>
       <c r="U37">
-        <v>3129</v>
+        <v>1576.3810000000001</v>
       </c>
       <c r="V37">
-        <v>826</v>
+        <v>239.869</v>
       </c>
       <c r="W37">
-        <v>-194</v>
+        <v>-79.751000000000005</v>
       </c>
       <c r="X37">
-        <v>-625</v>
+        <v>-47.841999999999999</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>11</v>
+        <v>-110.49299999999999</v>
       </c>
       <c r="AA37">
-        <v>698</v>
+        <v>137.86199999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43856</v>
+        <v>40209</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>892</v>
+        <v>83</v>
       </c>
       <c r="D38">
-        <v>4162</v>
+        <v>1849</v>
       </c>
       <c r="E38">
-        <v>2815</v>
+        <v>1267.4090000000001</v>
       </c>
       <c r="F38">
-        <v>1858</v>
+        <v>711</v>
       </c>
       <c r="G38">
-        <v>10769</v>
+        <v>5849.2629999999999</v>
       </c>
       <c r="H38">
-        <v>19767</v>
+        <v>10003.838</v>
       </c>
       <c r="I38">
-        <v>1043</v>
+        <v>466.92399999999998</v>
       </c>
       <c r="J38">
-        <v>4714</v>
+        <v>210.547</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4569</v>
+        <v>2277.9479999999999</v>
       </c>
       <c r="O38">
-        <v>11107</v>
+        <v>2855.6950000000002</v>
       </c>
       <c r="P38">
-        <v>5474</v>
+        <v>212.947</v>
       </c>
       <c r="Q38">
-        <v>295</v>
+        <v>-177</v>
       </c>
       <c r="R38">
-        <v>43856</v>
+        <v>40209</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>8660</v>
+        <v>7148.143</v>
       </c>
       <c r="U38">
-        <v>3424</v>
+        <v>1399.0540000000001</v>
       </c>
       <c r="V38">
-        <v>987</v>
+        <v>372</v>
       </c>
       <c r="W38">
-        <v>-192</v>
+        <v>-81</v>
       </c>
       <c r="X38">
-        <v>-530</v>
+        <v>-60</v>
       </c>
       <c r="Y38">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-60</v>
+        <v>-113</v>
       </c>
       <c r="AA38">
-        <v>892</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43947</v>
+        <v>40300</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>755</v>
+        <v>264</v>
       </c>
       <c r="D39">
-        <v>3957</v>
+        <v>2296</v>
       </c>
       <c r="E39">
-        <v>2777</v>
+        <v>1437.7460000000001</v>
       </c>
       <c r="F39">
-        <v>1757</v>
+        <v>927</v>
       </c>
       <c r="G39">
-        <v>12735</v>
+        <v>6173.2939999999999</v>
       </c>
       <c r="H39">
-        <v>21815</v>
+        <v>10449.749</v>
       </c>
       <c r="I39">
-        <v>1062</v>
+        <v>546.35900000000004</v>
       </c>
       <c r="J39">
-        <v>6215</v>
+        <v>204.84700000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>4765</v>
+        <v>2575.8200000000002</v>
       </c>
       <c r="O39">
-        <v>12791</v>
+        <v>3128.6680000000001</v>
       </c>
       <c r="P39">
-        <v>7059</v>
+        <v>206.65</v>
       </c>
       <c r="Q39">
-        <v>1972</v>
+        <v>197</v>
       </c>
       <c r="R39">
-        <v>43947</v>
+        <v>40300</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>9024</v>
+        <v>7321.0810000000001</v>
       </c>
       <c r="U39">
-        <v>5281</v>
+        <v>1596.4290000000001</v>
       </c>
       <c r="V39">
-        <v>635</v>
+        <v>527</v>
       </c>
       <c r="W39">
-        <v>-193</v>
+        <v>-80</v>
       </c>
       <c r="X39">
-        <v>1172</v>
+        <v>-109</v>
       </c>
       <c r="Y39">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>263</v>
+        <v>-176</v>
       </c>
       <c r="AA39">
-        <v>755</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44038</v>
+        <v>40391</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>841</v>
+        <v>123</v>
       </c>
       <c r="D40">
-        <v>4395</v>
+        <v>2518</v>
       </c>
       <c r="E40">
-        <v>2943</v>
+        <v>1721.4960000000001</v>
       </c>
       <c r="F40">
-        <v>1970</v>
+        <v>1107</v>
       </c>
       <c r="G40">
-        <v>12248</v>
+        <v>6551.7479999999996</v>
       </c>
       <c r="H40">
-        <v>21171</v>
+        <v>10726.147999999999</v>
       </c>
       <c r="I40">
-        <v>1118</v>
+        <v>628.32600000000002</v>
       </c>
       <c r="J40">
-        <v>5447</v>
+        <v>204.43799999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4285</v>
+        <v>2889.4720000000002</v>
       </c>
       <c r="O40">
-        <v>11602</v>
+        <v>3448.009</v>
       </c>
       <c r="P40">
-        <v>5706</v>
+        <v>206.286</v>
       </c>
       <c r="Q40">
-        <v>-931</v>
+        <v>-32</v>
       </c>
       <c r="R40">
-        <v>44038</v>
+        <v>40391</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>9569</v>
+        <v>7278.1390000000001</v>
       </c>
       <c r="U40">
-        <v>4350</v>
+        <v>1564.337</v>
       </c>
       <c r="V40">
-        <v>867</v>
+        <v>299</v>
       </c>
       <c r="W40">
-        <v>-202</v>
+        <v>-94</v>
       </c>
       <c r="X40">
-        <v>-1806</v>
+        <v>-193</v>
       </c>
       <c r="Y40">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>175</v>
+        <v>-101</v>
       </c>
       <c r="AA40">
-        <v>841</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44129</v>
+        <v>40482</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1131</v>
+        <v>468</v>
       </c>
       <c r="D41">
-        <v>4688</v>
+        <v>2887</v>
       </c>
       <c r="E41">
-        <v>3111</v>
+        <v>1831</v>
       </c>
       <c r="F41">
-        <v>2130</v>
+        <v>1217</v>
       </c>
       <c r="G41">
-        <v>13369</v>
+        <v>6765</v>
       </c>
       <c r="H41">
-        <v>22353</v>
+        <v>10943</v>
       </c>
       <c r="I41">
-        <v>1124</v>
+        <v>658</v>
       </c>
       <c r="J41">
-        <v>5448</v>
+        <v>204</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>4459</v>
+        <v>2888</v>
       </c>
       <c r="O41">
-        <v>11775</v>
+        <v>3407</v>
       </c>
       <c r="P41">
-        <v>5707</v>
+        <v>205</v>
       </c>
       <c r="Q41">
-        <v>1001</v>
+        <v>294</v>
       </c>
       <c r="R41">
-        <v>44129</v>
+        <v>40482</v>
       </c>
       <c r="S41">
-        <v>24000</v>
+        <v>13045</v>
       </c>
       <c r="T41">
-        <v>10578</v>
+        <v>7536</v>
       </c>
       <c r="U41">
-        <v>5351</v>
+        <v>1858</v>
       </c>
       <c r="V41">
-        <v>1315</v>
+        <v>525</v>
       </c>
       <c r="W41">
-        <v>-200</v>
+        <v>-94</v>
       </c>
       <c r="X41">
-        <v>-173</v>
+        <v>-214</v>
       </c>
       <c r="Y41">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA41">
-        <v>1131</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44227</v>
+        <v>40573</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>506</v>
+      </c>
+      <c r="D42">
+        <v>2686</v>
+      </c>
+      <c r="E42">
+        <v>1946</v>
+      </c>
+      <c r="F42">
+        <v>1136</v>
+      </c>
+      <c r="G42">
+        <v>7142</v>
+      </c>
+      <c r="H42">
+        <v>11274</v>
+      </c>
+      <c r="I42">
+        <v>686</v>
+      </c>
+      <c r="J42">
+        <v>204</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2914</v>
+      </c>
+      <c r="O42">
+        <v>3435</v>
+      </c>
+      <c r="P42">
+        <v>205</v>
+      </c>
+      <c r="Q42">
+        <v>116</v>
+      </c>
+      <c r="R42">
+        <v>40573</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>7839</v>
+      </c>
+      <c r="U42">
+        <v>1974</v>
+      </c>
+      <c r="V42">
+        <v>425</v>
+      </c>
+      <c r="W42">
+        <v>-93</v>
+      </c>
+      <c r="X42">
+        <v>-230</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-94</v>
+      </c>
+      <c r="AA42">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40664</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>489</v>
+      </c>
+      <c r="D43">
+        <v>2862</v>
+      </c>
+      <c r="E43">
+        <v>1916</v>
+      </c>
+      <c r="F43">
+        <v>1189</v>
+      </c>
+      <c r="G43">
+        <v>7944</v>
+      </c>
+      <c r="H43">
+        <v>11957</v>
+      </c>
+      <c r="I43">
+        <v>814</v>
+      </c>
+      <c r="J43">
+        <v>204</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3251</v>
+      </c>
+      <c r="O43">
+        <v>3775</v>
+      </c>
+      <c r="P43">
+        <v>205</v>
+      </c>
+      <c r="Q43">
+        <v>584</v>
+      </c>
+      <c r="R43">
+        <v>40664</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>8182</v>
+      </c>
+      <c r="U43">
+        <v>2558</v>
+      </c>
+      <c r="V43">
+        <v>704</v>
+      </c>
+      <c r="W43">
+        <v>-93</v>
+      </c>
+      <c r="X43">
+        <v>-166</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>102</v>
+      </c>
+      <c r="AA43">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40755</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>476</v>
+      </c>
+      <c r="D44">
+        <v>2787</v>
+      </c>
+      <c r="E44">
+        <v>1812</v>
+      </c>
+      <c r="F44">
+        <v>1184</v>
+      </c>
+      <c r="G44">
+        <v>10273</v>
+      </c>
+      <c r="H44">
+        <v>14103</v>
+      </c>
+      <c r="I44">
+        <v>656</v>
+      </c>
+      <c r="J44">
+        <v>1947</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3278</v>
+      </c>
+      <c r="O44">
+        <v>5552</v>
+      </c>
+      <c r="P44">
+        <v>1947</v>
+      </c>
+      <c r="Q44">
+        <v>2460</v>
+      </c>
+      <c r="R44">
+        <v>40755</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>8551</v>
+      </c>
+      <c r="U44">
+        <v>5018</v>
+      </c>
+      <c r="V44">
+        <v>599</v>
+      </c>
+      <c r="W44">
+        <v>-105</v>
+      </c>
+      <c r="X44">
+        <v>1606</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>220</v>
+      </c>
+      <c r="AA44">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40846</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>455</v>
+      </c>
+      <c r="D45">
+        <v>2181</v>
+      </c>
+      <c r="E45">
+        <v>1532</v>
+      </c>
+      <c r="F45">
+        <v>851</v>
+      </c>
+      <c r="G45">
+        <v>10355</v>
+      </c>
+      <c r="H45">
+        <v>13861</v>
+      </c>
+      <c r="I45">
+        <v>484</v>
+      </c>
+      <c r="J45">
+        <v>1947</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2794</v>
+      </c>
+      <c r="O45">
+        <v>5061</v>
+      </c>
+      <c r="P45">
+        <v>1947</v>
+      </c>
+      <c r="Q45">
+        <v>942</v>
+      </c>
+      <c r="R45">
+        <v>40846</v>
+      </c>
+      <c r="S45">
+        <v>12973</v>
+      </c>
+      <c r="T45">
+        <v>8800</v>
+      </c>
+      <c r="U45">
+        <v>5960</v>
+      </c>
+      <c r="V45">
+        <v>701</v>
+      </c>
+      <c r="W45">
+        <v>-106</v>
+      </c>
+      <c r="X45">
+        <v>-250</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>558</v>
+      </c>
+      <c r="AA45">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40937</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>117</v>
+      </c>
+      <c r="D46">
+        <v>2189</v>
+      </c>
+      <c r="E46">
+        <v>1576</v>
+      </c>
+      <c r="F46">
+        <v>786</v>
+      </c>
+      <c r="G46">
+        <v>6157</v>
+      </c>
+      <c r="H46">
+        <v>13597</v>
+      </c>
+      <c r="I46">
+        <v>484</v>
+      </c>
+      <c r="J46">
+        <v>1947</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2494</v>
+      </c>
+      <c r="O46">
+        <v>4947</v>
+      </c>
+      <c r="P46">
+        <v>1949</v>
+      </c>
+      <c r="Q46">
+        <v>-4279</v>
+      </c>
+      <c r="R46">
+        <v>40937</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>8650</v>
+      </c>
+      <c r="U46">
+        <v>1681</v>
+      </c>
+      <c r="V46">
+        <v>181</v>
+      </c>
+      <c r="W46">
+        <v>-104</v>
+      </c>
+      <c r="X46">
+        <v>-302</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>59</v>
+      </c>
+      <c r="AA46">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41028</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>289</v>
+      </c>
+      <c r="D47">
+        <v>2541</v>
+      </c>
+      <c r="E47">
+        <v>1785</v>
+      </c>
+      <c r="F47">
+        <v>1011</v>
+      </c>
+      <c r="G47">
+        <v>6330</v>
+      </c>
+      <c r="H47">
+        <v>13877</v>
+      </c>
+      <c r="I47">
+        <v>507</v>
+      </c>
+      <c r="J47">
+        <v>1946</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2666</v>
+      </c>
+      <c r="O47">
+        <v>5174</v>
+      </c>
+      <c r="P47">
+        <v>1947</v>
+      </c>
+      <c r="Q47">
+        <v>80</v>
+      </c>
+      <c r="R47">
+        <v>41028</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>8703</v>
+      </c>
+      <c r="U47">
+        <v>1761</v>
+      </c>
+      <c r="V47">
+        <v>603</v>
+      </c>
+      <c r="W47">
+        <v>-104</v>
+      </c>
+      <c r="X47">
+        <v>-261</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-213</v>
+      </c>
+      <c r="AA47">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>218</v>
+      </c>
+      <c r="D48">
+        <v>2343</v>
+      </c>
+      <c r="E48">
+        <v>1535</v>
+      </c>
+      <c r="F48">
+        <v>930</v>
+      </c>
+      <c r="G48">
+        <v>5865</v>
+      </c>
+      <c r="H48">
+        <v>13320</v>
+      </c>
+      <c r="I48">
+        <v>443</v>
+      </c>
+      <c r="J48">
+        <v>1946</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2408</v>
+      </c>
+      <c r="O48">
+        <v>4981</v>
+      </c>
+      <c r="P48">
+        <v>1946</v>
+      </c>
+      <c r="Q48">
+        <v>-232</v>
+      </c>
+      <c r="R48">
+        <v>41119</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>8339</v>
+      </c>
+      <c r="U48">
+        <v>1529</v>
+      </c>
+      <c r="V48">
+        <v>656</v>
+      </c>
+      <c r="W48">
+        <v>-115</v>
+      </c>
+      <c r="X48">
+        <v>-609</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-233</v>
+      </c>
+      <c r="AA48">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41210</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-515</v>
+      </c>
+      <c r="D49">
+        <v>1646</v>
+      </c>
+      <c r="E49">
+        <v>1220</v>
+      </c>
+      <c r="F49">
+        <v>600</v>
+      </c>
+      <c r="G49">
+        <v>5102</v>
+      </c>
+      <c r="H49">
+        <v>12102</v>
+      </c>
+      <c r="I49">
+        <v>396</v>
+      </c>
+      <c r="J49">
+        <v>1946</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2265</v>
+      </c>
+      <c r="O49">
+        <v>4867</v>
+      </c>
+      <c r="P49">
+        <v>1946</v>
+      </c>
+      <c r="Q49">
+        <v>-137</v>
+      </c>
+      <c r="R49">
+        <v>41210</v>
+      </c>
+      <c r="S49">
+        <v>14526</v>
+      </c>
+      <c r="T49">
+        <v>7235</v>
+      </c>
+      <c r="U49">
+        <v>1392</v>
+      </c>
+      <c r="V49">
+        <v>411</v>
+      </c>
+      <c r="W49">
+        <v>-111</v>
+      </c>
+      <c r="X49">
+        <v>-582</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>79</v>
+      </c>
+      <c r="AA49">
+        <v>-515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41301</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>34</v>
+      </c>
+      <c r="D50">
+        <v>1573</v>
+      </c>
+      <c r="E50">
+        <v>1109</v>
+      </c>
+      <c r="F50">
+        <v>583</v>
+      </c>
+      <c r="G50">
+        <v>4765</v>
+      </c>
+      <c r="H50">
+        <v>11714</v>
+      </c>
+      <c r="I50">
+        <v>430</v>
+      </c>
+      <c r="J50">
+        <v>1946</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1965</v>
+      </c>
+      <c r="O50">
+        <v>4573</v>
+      </c>
+      <c r="P50">
+        <v>1946</v>
+      </c>
+      <c r="Q50">
+        <v>131</v>
+      </c>
+      <c r="R50">
+        <v>41301</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>7141</v>
+      </c>
+      <c r="U50">
+        <v>1523</v>
+      </c>
+      <c r="V50">
+        <v>16</v>
+      </c>
+      <c r="W50">
+        <v>-108</v>
+      </c>
+      <c r="X50">
+        <v>-138</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>302</v>
+      </c>
+      <c r="AA50">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41392</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-129</v>
+      </c>
+      <c r="D51">
+        <v>1973</v>
+      </c>
+      <c r="E51">
+        <v>1275</v>
+      </c>
+      <c r="F51">
+        <v>809</v>
+      </c>
+      <c r="G51">
+        <v>5113</v>
+      </c>
+      <c r="H51">
+        <v>11695</v>
+      </c>
+      <c r="I51">
+        <v>531</v>
+      </c>
+      <c r="J51">
+        <v>1946</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2201</v>
+      </c>
+      <c r="O51">
+        <v>4797</v>
+      </c>
+      <c r="P51">
+        <v>1946</v>
+      </c>
+      <c r="Q51">
+        <v>22</v>
+      </c>
+      <c r="R51">
+        <v>41392</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>6898</v>
+      </c>
+      <c r="U51">
+        <v>1545</v>
+      </c>
+      <c r="V51">
+        <v>224</v>
+      </c>
+      <c r="W51">
+        <v>-108</v>
+      </c>
+      <c r="X51">
+        <v>-141</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-9</v>
+      </c>
+      <c r="AA51">
+        <v>-129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41483</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>168</v>
+      </c>
+      <c r="D52">
+        <v>1975</v>
+      </c>
+      <c r="E52">
+        <v>1170</v>
+      </c>
+      <c r="F52">
+        <v>807</v>
+      </c>
+      <c r="G52">
+        <v>5237</v>
+      </c>
+      <c r="H52">
+        <v>11751</v>
+      </c>
+      <c r="I52">
+        <v>515</v>
+      </c>
+      <c r="J52">
+        <v>1946</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2202</v>
+      </c>
+      <c r="O52">
+        <v>4797</v>
+      </c>
+      <c r="P52">
+        <v>1946</v>
+      </c>
+      <c r="Q52">
+        <v>200</v>
+      </c>
+      <c r="R52">
+        <v>41483</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>6954</v>
+      </c>
+      <c r="U52">
+        <v>1745</v>
+      </c>
+      <c r="V52">
+        <v>364</v>
+      </c>
+      <c r="W52">
+        <v>-120</v>
+      </c>
+      <c r="X52">
+        <v>-130</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>6</v>
+      </c>
+      <c r="AA52">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41574</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>183</v>
+      </c>
+      <c r="D53">
+        <v>1988</v>
+      </c>
+      <c r="E53">
+        <v>1633</v>
+      </c>
+      <c r="F53">
+        <v>795</v>
+      </c>
+      <c r="G53">
+        <v>5642</v>
+      </c>
+      <c r="H53">
+        <v>12043</v>
+      </c>
+      <c r="I53">
+        <v>582</v>
+      </c>
+      <c r="J53">
+        <v>1946</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2443</v>
+      </c>
+      <c r="O53">
+        <v>4955</v>
+      </c>
+      <c r="P53">
+        <v>1946</v>
+      </c>
+      <c r="Q53">
+        <v>-34</v>
+      </c>
+      <c r="R53">
+        <v>41574</v>
+      </c>
+      <c r="S53">
+        <v>13700</v>
+      </c>
+      <c r="T53">
+        <v>7088</v>
+      </c>
+      <c r="U53">
+        <v>1711</v>
+      </c>
+      <c r="V53">
+        <v>19</v>
+      </c>
+      <c r="W53">
+        <v>-120</v>
+      </c>
+      <c r="X53">
+        <v>-110</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>107</v>
+      </c>
+      <c r="AA53">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41665</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>253</v>
+      </c>
+      <c r="D54">
+        <v>2190</v>
+      </c>
+      <c r="E54">
+        <v>1510</v>
+      </c>
+      <c r="F54">
+        <v>891</v>
+      </c>
+      <c r="G54">
+        <v>6014</v>
+      </c>
+      <c r="H54">
+        <v>12199</v>
+      </c>
+      <c r="I54">
+        <v>645</v>
+      </c>
+      <c r="J54">
+        <v>1946</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2477</v>
+      </c>
+      <c r="O54">
+        <v>4958</v>
+      </c>
+      <c r="P54">
+        <v>1946</v>
+      </c>
+      <c r="Q54">
+        <v>433</v>
+      </c>
+      <c r="R54">
+        <v>41665</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>7241</v>
+      </c>
+      <c r="U54">
+        <v>2144</v>
+      </c>
+      <c r="V54">
+        <v>372</v>
+      </c>
+      <c r="W54">
+        <v>-120</v>
+      </c>
+      <c r="X54">
+        <v>-92</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>201</v>
+      </c>
+      <c r="AA54">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41756</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>262</v>
+      </c>
+      <c r="D55">
+        <v>2353</v>
+      </c>
+      <c r="E55">
+        <v>1615</v>
+      </c>
+      <c r="F55">
+        <v>1002</v>
+      </c>
+      <c r="G55">
+        <v>6401</v>
+      </c>
+      <c r="H55">
+        <v>12555</v>
+      </c>
+      <c r="I55">
+        <v>606</v>
+      </c>
+      <c r="J55">
+        <v>1947</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2662</v>
+      </c>
+      <c r="O55">
+        <v>5080</v>
+      </c>
+      <c r="P55">
+        <v>1947</v>
+      </c>
+      <c r="Q55">
+        <v>309</v>
+      </c>
+      <c r="R55">
+        <v>41756</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>7475</v>
+      </c>
+      <c r="U55">
+        <v>2453</v>
+      </c>
+      <c r="V55">
+        <v>437</v>
+      </c>
+      <c r="W55">
+        <v>-122</v>
+      </c>
+      <c r="X55">
+        <v>-59</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-4</v>
+      </c>
+      <c r="AA55">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41847</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>301</v>
+      </c>
+      <c r="D56">
+        <v>2265</v>
+      </c>
+      <c r="E56">
+        <v>1622</v>
+      </c>
+      <c r="F56">
+        <v>992</v>
+      </c>
+      <c r="G56">
+        <v>6640</v>
+      </c>
+      <c r="H56">
+        <v>12851</v>
+      </c>
+      <c r="I56">
+        <v>583</v>
+      </c>
+      <c r="J56">
+        <v>1947</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2755</v>
+      </c>
+      <c r="O56">
+        <v>5167</v>
+      </c>
+      <c r="P56">
+        <v>1947</v>
+      </c>
+      <c r="Q56">
+        <v>273</v>
+      </c>
+      <c r="R56">
+        <v>41847</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>7684</v>
+      </c>
+      <c r="U56">
+        <v>2726</v>
+      </c>
+      <c r="V56">
+        <v>584</v>
+      </c>
+      <c r="W56">
+        <v>-121</v>
+      </c>
+      <c r="X56">
+        <v>-119</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-127</v>
+      </c>
+      <c r="AA56">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41938</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>256</v>
+      </c>
+      <c r="D57">
+        <v>2264</v>
+      </c>
+      <c r="E57">
+        <v>1670</v>
+      </c>
+      <c r="F57">
+        <v>959</v>
+      </c>
+      <c r="G57">
+        <v>6967</v>
+      </c>
+      <c r="H57">
+        <v>13174</v>
+      </c>
+      <c r="I57">
+        <v>613</v>
+      </c>
+      <c r="J57">
+        <v>1947</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2823</v>
+      </c>
+      <c r="O57">
+        <v>5306</v>
+      </c>
+      <c r="P57">
+        <v>1947</v>
+      </c>
+      <c r="Q57">
+        <v>276</v>
+      </c>
+      <c r="R57">
+        <v>41938</v>
+      </c>
+      <c r="S57">
+        <v>14000</v>
+      </c>
+      <c r="T57">
+        <v>7868</v>
+      </c>
+      <c r="U57">
+        <v>3002</v>
+      </c>
+      <c r="V57">
+        <v>407</v>
+      </c>
+      <c r="W57">
+        <v>-122</v>
+      </c>
+      <c r="X57">
+        <v>-78</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-3</v>
+      </c>
+      <c r="AA57">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42029</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>348</v>
+      </c>
+      <c r="D58">
+        <v>2359</v>
+      </c>
+      <c r="E58">
+        <v>1580</v>
+      </c>
+      <c r="F58">
+        <v>959</v>
+      </c>
+      <c r="G58">
+        <v>6933</v>
+      </c>
+      <c r="H58">
+        <v>13073</v>
+      </c>
+      <c r="I58">
+        <v>650</v>
+      </c>
+      <c r="J58">
+        <v>1947</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2521</v>
+      </c>
+      <c r="O58">
+        <v>5001</v>
+      </c>
+      <c r="P58">
+        <v>1947</v>
+      </c>
+      <c r="Q58">
+        <v>-73</v>
+      </c>
+      <c r="R58">
+        <v>42029</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>8072</v>
+      </c>
+      <c r="U58">
+        <v>2929</v>
+      </c>
+      <c r="V58">
+        <v>60</v>
+      </c>
+      <c r="W58">
+        <v>-122</v>
+      </c>
+      <c r="X58">
+        <v>-83</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>364</v>
+      </c>
+      <c r="D59">
+        <v>2442</v>
+      </c>
+      <c r="E59">
+        <v>1798</v>
+      </c>
+      <c r="F59">
+        <v>1016</v>
+      </c>
+      <c r="G59">
+        <v>7447</v>
+      </c>
+      <c r="H59">
+        <v>13587</v>
+      </c>
+      <c r="I59">
+        <v>647</v>
+      </c>
+      <c r="J59">
+        <v>1947</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2696</v>
+      </c>
+      <c r="O59">
+        <v>5236</v>
+      </c>
+      <c r="P59">
+        <v>1947</v>
+      </c>
+      <c r="Q59">
+        <v>138</v>
+      </c>
+      <c r="R59">
+        <v>42120</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>8351</v>
+      </c>
+      <c r="U59">
+        <v>3067</v>
+      </c>
+      <c r="V59">
+        <v>298</v>
+      </c>
+      <c r="W59">
+        <v>-123</v>
+      </c>
+      <c r="X59">
+        <v>-69</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-26</v>
+      </c>
+      <c r="AA59">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42211</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>329</v>
+      </c>
+      <c r="D60">
+        <v>2490</v>
+      </c>
+      <c r="E60">
+        <v>1991</v>
+      </c>
+      <c r="F60">
+        <v>1052</v>
+      </c>
+      <c r="G60">
+        <v>7043</v>
+      </c>
+      <c r="H60">
+        <v>13153</v>
+      </c>
+      <c r="I60">
+        <v>693</v>
+      </c>
+      <c r="J60">
+        <v>1547</v>
+      </c>
+      <c r="K60">
+        <v>400</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3020</v>
+      </c>
+      <c r="O60">
+        <v>5176</v>
+      </c>
+      <c r="P60">
+        <v>1947</v>
+      </c>
+      <c r="Q60">
+        <v>-493</v>
+      </c>
+      <c r="R60">
+        <v>42211</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>7977</v>
+      </c>
+      <c r="U60">
+        <v>2574</v>
+      </c>
+      <c r="V60">
+        <v>334</v>
+      </c>
+      <c r="W60">
+        <v>-123</v>
+      </c>
+      <c r="X60">
+        <v>-744</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-33</v>
+      </c>
+      <c r="AA60">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42302</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>336</v>
+      </c>
+      <c r="D61">
+        <v>2368</v>
+      </c>
+      <c r="E61">
+        <v>1739</v>
+      </c>
+      <c r="F61">
+        <v>960</v>
+      </c>
+      <c r="G61">
+        <v>9261</v>
+      </c>
+      <c r="H61">
+        <v>15308</v>
+      </c>
+      <c r="I61">
+        <v>658</v>
+      </c>
+      <c r="J61">
+        <v>3342</v>
+      </c>
+      <c r="K61">
+        <v>1200</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3798</v>
+      </c>
+      <c r="O61">
+        <v>7695</v>
+      </c>
+      <c r="P61">
+        <v>4542</v>
+      </c>
+      <c r="Q61">
+        <v>2223</v>
+      </c>
+      <c r="R61">
+        <v>42302</v>
+      </c>
+      <c r="S61">
+        <v>14600</v>
+      </c>
+      <c r="T61">
+        <v>7613</v>
+      </c>
+      <c r="U61">
+        <v>4797</v>
+      </c>
+      <c r="V61">
+        <v>471</v>
+      </c>
+      <c r="W61">
+        <v>-119</v>
+      </c>
+      <c r="X61">
+        <v>1809</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-2</v>
+      </c>
+      <c r="AA61">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>286</v>
+      </c>
+      <c r="D62">
+        <v>2257</v>
+      </c>
+      <c r="E62">
+        <v>1625</v>
+      </c>
+      <c r="F62">
+        <v>915</v>
+      </c>
+      <c r="G62">
+        <v>6910</v>
+      </c>
+      <c r="H62">
+        <v>13326</v>
+      </c>
+      <c r="I62">
+        <v>549</v>
+      </c>
+      <c r="J62">
+        <v>3343</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-1205</v>
+      </c>
+      <c r="N62">
+        <v>2307</v>
+      </c>
+      <c r="O62">
+        <v>6158</v>
+      </c>
+      <c r="P62">
+        <v>3343</v>
+      </c>
+      <c r="Q62">
+        <v>-1835</v>
+      </c>
+      <c r="R62">
+        <v>42400</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>7168</v>
+      </c>
+      <c r="U62">
+        <v>2962</v>
+      </c>
+      <c r="V62">
+        <v>207</v>
+      </c>
+      <c r="W62">
+        <v>-115</v>
+      </c>
+      <c r="X62">
+        <v>-1933</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-41</v>
+      </c>
+      <c r="AA62">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>320</v>
+      </c>
+      <c r="D63">
+        <v>2450</v>
+      </c>
+      <c r="E63">
+        <v>1913</v>
+      </c>
+      <c r="F63">
+        <v>1004</v>
+      </c>
+      <c r="G63">
+        <v>6728</v>
+      </c>
+      <c r="H63">
+        <v>13075</v>
+      </c>
+      <c r="I63">
+        <v>644</v>
+      </c>
+      <c r="J63">
+        <v>3343</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2611</v>
+      </c>
+      <c r="O63">
+        <v>6510</v>
+      </c>
+      <c r="P63">
+        <v>3343</v>
+      </c>
+      <c r="Q63">
+        <v>-492</v>
+      </c>
+      <c r="R63">
+        <v>42491</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>6565</v>
+      </c>
+      <c r="U63">
+        <v>2470</v>
+      </c>
+      <c r="V63">
+        <v>481</v>
+      </c>
+      <c r="W63">
+        <v>-113</v>
+      </c>
+      <c r="X63">
+        <v>-968</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>50</v>
+      </c>
+      <c r="AA63">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>505</v>
+      </c>
+      <c r="D64">
+        <v>2821</v>
+      </c>
+      <c r="E64">
+        <v>1852</v>
+      </c>
+      <c r="F64">
+        <v>1191</v>
+      </c>
+      <c r="G64">
+        <v>7399</v>
+      </c>
+      <c r="H64">
+        <v>13699</v>
+      </c>
+      <c r="I64">
+        <v>717</v>
+      </c>
+      <c r="J64">
+        <v>3343</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2964</v>
+      </c>
+      <c r="O64">
+        <v>6880</v>
+      </c>
+      <c r="P64">
+        <v>3343</v>
+      </c>
+      <c r="Q64">
+        <v>358</v>
+      </c>
+      <c r="R64">
+        <v>42582</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>6819</v>
+      </c>
+      <c r="U64">
+        <v>2828</v>
+      </c>
+      <c r="V64">
+        <v>981</v>
+      </c>
+      <c r="W64">
+        <v>-108</v>
+      </c>
+      <c r="X64">
+        <v>-301</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-275</v>
+      </c>
+      <c r="AA64">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42673</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>610</v>
+      </c>
+      <c r="D65">
+        <v>3297</v>
+      </c>
+      <c r="E65">
+        <v>2279</v>
+      </c>
+      <c r="F65">
+        <v>1399</v>
+      </c>
+      <c r="G65">
+        <v>8353</v>
+      </c>
+      <c r="H65">
+        <v>14570</v>
+      </c>
+      <c r="I65">
+        <v>813</v>
+      </c>
+      <c r="J65">
+        <v>3125</v>
+      </c>
+      <c r="K65">
+        <v>200</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>3632</v>
+      </c>
+      <c r="O65">
+        <v>7353</v>
+      </c>
+      <c r="P65">
+        <v>3325</v>
+      </c>
+      <c r="Q65">
+        <v>578</v>
+      </c>
+      <c r="R65">
+        <v>42673</v>
+      </c>
+      <c r="S65">
+        <v>15600</v>
+      </c>
+      <c r="T65">
+        <v>7217</v>
+      </c>
+      <c r="U65">
+        <v>3406</v>
+      </c>
+      <c r="V65">
+        <v>797</v>
+      </c>
+      <c r="W65">
+        <v>-108</v>
+      </c>
+      <c r="X65">
+        <v>-230</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>110</v>
+      </c>
+      <c r="AA65">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42764</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>703</v>
+      </c>
+      <c r="D66">
+        <v>3278</v>
+      </c>
+      <c r="E66">
+        <v>2369</v>
+      </c>
+      <c r="F66">
+        <v>1445</v>
+      </c>
+      <c r="G66">
+        <v>9094</v>
+      </c>
+      <c r="H66">
+        <v>15244</v>
+      </c>
+      <c r="I66">
+        <v>867</v>
+      </c>
+      <c r="J66">
+        <v>3125</v>
+      </c>
+      <c r="K66">
+        <v>200</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3808</v>
+      </c>
+      <c r="O66">
+        <v>7557</v>
+      </c>
+      <c r="P66">
+        <v>3325</v>
+      </c>
+      <c r="Q66">
+        <v>85</v>
+      </c>
+      <c r="R66">
+        <v>42764</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>7687</v>
+      </c>
+      <c r="U66">
+        <v>3491</v>
+      </c>
+      <c r="V66">
+        <v>792</v>
+      </c>
+      <c r="W66">
+        <v>-108</v>
+      </c>
+      <c r="X66">
+        <v>-340</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-303</v>
+      </c>
+      <c r="AA66">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>824</v>
+      </c>
+      <c r="D67">
+        <v>3546</v>
+      </c>
+      <c r="E67">
+        <v>2381</v>
+      </c>
+      <c r="F67">
+        <v>1600</v>
+      </c>
+      <c r="G67">
+        <v>12018</v>
+      </c>
+      <c r="H67">
+        <v>18240</v>
+      </c>
+      <c r="I67">
+        <v>929</v>
+      </c>
+      <c r="J67">
+        <v>5302</v>
+      </c>
+      <c r="K67">
+        <v>200</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>4097</v>
+      </c>
+      <c r="O67">
+        <v>10028</v>
+      </c>
+      <c r="P67">
+        <v>5502</v>
+      </c>
+      <c r="Q67">
+        <v>1453</v>
+      </c>
+      <c r="R67">
+        <v>42855</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>8212</v>
+      </c>
+      <c r="U67">
+        <v>4944</v>
+      </c>
+      <c r="V67">
+        <v>911</v>
+      </c>
+      <c r="W67">
+        <v>-108</v>
+      </c>
+      <c r="X67">
+        <v>1823</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-1178</v>
+      </c>
+      <c r="AA67">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42946</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>925</v>
+      </c>
+      <c r="D68">
+        <v>3744</v>
+      </c>
+      <c r="E68">
+        <v>2258</v>
+      </c>
+      <c r="F68">
+        <v>1700</v>
+      </c>
+      <c r="G68">
+        <v>12731</v>
+      </c>
+      <c r="H68">
+        <v>19078</v>
+      </c>
+      <c r="I68">
+        <v>935</v>
+      </c>
+      <c r="J68">
+        <v>5303</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>4371</v>
+      </c>
+      <c r="O68">
+        <v>10362</v>
+      </c>
+      <c r="P68">
+        <v>5303</v>
+      </c>
+      <c r="Q68">
+        <v>334</v>
+      </c>
+      <c r="R68">
+        <v>42946</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>8716</v>
+      </c>
+      <c r="U68">
+        <v>5278</v>
+      </c>
+      <c r="V68">
+        <v>1377</v>
+      </c>
+      <c r="W68">
+        <v>-107</v>
+      </c>
+      <c r="X68">
+        <v>-694</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-239</v>
+      </c>
+      <c r="AA68">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43037</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>982</v>
+      </c>
+      <c r="D69">
+        <v>3969</v>
+      </c>
+      <c r="E69">
+        <v>2338</v>
+      </c>
+      <c r="F69">
+        <v>1787</v>
+      </c>
+      <c r="G69">
+        <v>12918</v>
+      </c>
+      <c r="H69">
+        <v>19419</v>
+      </c>
+      <c r="I69">
+        <v>945</v>
+      </c>
+      <c r="J69">
+        <v>5304</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>4115</v>
+      </c>
+      <c r="O69">
+        <v>10070</v>
+      </c>
+      <c r="P69">
+        <v>5304</v>
+      </c>
+      <c r="Q69">
+        <v>-268</v>
+      </c>
+      <c r="R69">
+        <v>43037</v>
+      </c>
+      <c r="S69">
+        <v>18400</v>
+      </c>
+      <c r="T69">
+        <v>9349</v>
+      </c>
+      <c r="U69">
+        <v>5010</v>
+      </c>
+      <c r="V69">
+        <v>709</v>
+      </c>
+      <c r="W69">
+        <v>-107</v>
+      </c>
+      <c r="X69">
+        <v>-448</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-393</v>
+      </c>
+      <c r="AA69">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43128</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>165</v>
+      </c>
+      <c r="D70">
+        <v>4205</v>
+      </c>
+      <c r="E70">
+        <v>2182</v>
+      </c>
+      <c r="F70">
+        <v>1940</v>
+      </c>
+      <c r="G70">
+        <v>13029</v>
+      </c>
+      <c r="H70">
+        <v>19663</v>
+      </c>
+      <c r="I70">
+        <v>1041</v>
+      </c>
+      <c r="J70">
+        <v>5305</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>4399</v>
+      </c>
+      <c r="O70">
+        <v>11157</v>
+      </c>
+      <c r="P70">
+        <v>5305</v>
+      </c>
+      <c r="Q70">
+        <v>1789</v>
+      </c>
+      <c r="R70">
+        <v>43128</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>8506</v>
+      </c>
+      <c r="U70">
+        <v>6799</v>
+      </c>
+      <c r="V70">
+        <v>1466</v>
+      </c>
+      <c r="W70">
+        <v>-106</v>
+      </c>
+      <c r="X70">
+        <v>-1029</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>1560</v>
+      </c>
+      <c r="AA70">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1100</v>
+      </c>
+      <c r="D71">
+        <v>4579</v>
+      </c>
+      <c r="E71">
+        <v>2665</v>
+      </c>
+      <c r="F71">
+        <v>2056</v>
+      </c>
+      <c r="G71">
+        <v>11891</v>
+      </c>
+      <c r="H71">
+        <v>18498</v>
+      </c>
+      <c r="I71">
+        <v>1164</v>
+      </c>
+      <c r="J71">
+        <v>5306</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>4580</v>
+      </c>
+      <c r="O71">
+        <v>11456</v>
+      </c>
+      <c r="P71">
+        <v>5306</v>
+      </c>
+      <c r="Q71">
+        <v>-1929</v>
+      </c>
+      <c r="R71">
+        <v>43219</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>7042</v>
+      </c>
+      <c r="U71">
+        <v>4870</v>
+      </c>
+      <c r="V71">
+        <v>611</v>
+      </c>
+      <c r="W71">
+        <v>-105</v>
+      </c>
+      <c r="X71">
+        <v>-2562</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>143</v>
+      </c>
+      <c r="AA71">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43310</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1016</v>
+      </c>
+      <c r="D72">
+        <v>4162</v>
+      </c>
+      <c r="E72">
+        <v>2882</v>
+      </c>
+      <c r="F72">
+        <v>1864</v>
+      </c>
+      <c r="G72">
+        <v>10889</v>
+      </c>
+      <c r="H72">
+        <v>17883</v>
+      </c>
+      <c r="I72">
+        <v>1094</v>
+      </c>
+      <c r="J72">
+        <v>5308</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>4322</v>
+      </c>
+      <c r="O72">
+        <v>11058</v>
+      </c>
+      <c r="P72">
+        <v>5308</v>
+      </c>
+      <c r="Q72">
+        <v>-1496</v>
+      </c>
+      <c r="R72">
+        <v>43310</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>6825</v>
+      </c>
+      <c r="U72">
+        <v>3374</v>
+      </c>
+      <c r="V72">
+        <v>633</v>
+      </c>
+      <c r="W72">
+        <v>-199</v>
+      </c>
+      <c r="X72">
+        <v>-1455</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-541</v>
+      </c>
+      <c r="AA72">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43401</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>757</v>
+      </c>
+      <c r="D73">
+        <v>3759</v>
+      </c>
+      <c r="E73">
+        <v>2422</v>
+      </c>
+      <c r="F73">
+        <v>1657</v>
+      </c>
+      <c r="G73">
+        <v>10604</v>
+      </c>
+      <c r="H73">
+        <v>17633</v>
+      </c>
+      <c r="I73">
+        <v>996</v>
+      </c>
+      <c r="J73">
+        <v>5309</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3922</v>
+      </c>
+      <c r="O73">
+        <v>10788</v>
+      </c>
+      <c r="P73">
+        <v>5309</v>
+      </c>
+      <c r="Q73">
+        <v>66</v>
+      </c>
+      <c r="R73">
+        <v>43401</v>
+      </c>
+      <c r="S73">
+        <v>21000</v>
+      </c>
+      <c r="T73">
+        <v>6845</v>
+      </c>
+      <c r="U73">
+        <v>3440</v>
+      </c>
+      <c r="V73">
+        <v>1077</v>
+      </c>
+      <c r="W73">
+        <v>-195</v>
+      </c>
+      <c r="X73">
+        <v>-882</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>37</v>
+      </c>
+      <c r="AA73">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43492</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>771</v>
+      </c>
+      <c r="D74">
+        <v>3753</v>
+      </c>
+      <c r="E74">
+        <v>2544</v>
+      </c>
+      <c r="F74">
+        <v>1665</v>
+      </c>
+      <c r="G74">
+        <v>10285</v>
+      </c>
+      <c r="H74">
+        <v>18922</v>
+      </c>
+      <c r="I74">
+        <v>978</v>
+      </c>
+      <c r="J74">
+        <v>5310</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3776</v>
+      </c>
+      <c r="O74">
+        <v>10713</v>
+      </c>
+      <c r="P74">
+        <v>5310</v>
+      </c>
+      <c r="Q74">
+        <v>-248</v>
+      </c>
+      <c r="R74">
+        <v>43492</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>8209</v>
+      </c>
+      <c r="U74">
+        <v>3192</v>
+      </c>
+      <c r="V74">
+        <v>834</v>
+      </c>
+      <c r="W74">
+        <v>-192</v>
+      </c>
+      <c r="X74">
+        <v>-1016</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>67</v>
+      </c>
+      <c r="AA74">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>666</v>
+      </c>
+      <c r="D75">
+        <v>3539</v>
+      </c>
+      <c r="E75">
+        <v>2375</v>
+      </c>
+      <c r="F75">
+        <v>1530</v>
+      </c>
+      <c r="G75">
+        <v>10062</v>
+      </c>
+      <c r="H75">
+        <v>18775</v>
+      </c>
+      <c r="I75">
+        <v>903</v>
+      </c>
+      <c r="J75">
+        <v>5311</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>3605</v>
+      </c>
+      <c r="O75">
+        <v>10574</v>
+      </c>
+      <c r="P75">
+        <v>5311</v>
+      </c>
+      <c r="Q75">
+        <v>-76</v>
+      </c>
+      <c r="R75">
+        <v>43583</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>8201</v>
+      </c>
+      <c r="U75">
+        <v>3116</v>
+      </c>
+      <c r="V75">
+        <v>800</v>
+      </c>
+      <c r="W75">
+        <v>-189</v>
+      </c>
+      <c r="X75">
+        <v>-747</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>12</v>
+      </c>
+      <c r="AA75">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43674</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>571</v>
+      </c>
+      <c r="D76">
+        <v>3562</v>
+      </c>
+      <c r="E76">
+        <v>2489</v>
+      </c>
+      <c r="F76">
+        <v>1557</v>
+      </c>
+      <c r="G76">
+        <v>10042</v>
+      </c>
+      <c r="H76">
+        <v>18805</v>
+      </c>
+      <c r="I76">
+        <v>890</v>
+      </c>
+      <c r="J76">
+        <v>5312</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>3785</v>
+      </c>
+      <c r="O76">
+        <v>10689</v>
+      </c>
+      <c r="P76">
+        <v>5312</v>
+      </c>
+      <c r="Q76">
+        <v>-102</v>
+      </c>
+      <c r="R76">
+        <v>43674</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>8116</v>
+      </c>
+      <c r="U76">
+        <v>3014</v>
+      </c>
+      <c r="V76">
+        <v>787</v>
+      </c>
+      <c r="W76">
+        <v>-196</v>
+      </c>
+      <c r="X76">
+        <v>-727</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-64</v>
+      </c>
+      <c r="AA76">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>698</v>
+      </c>
+      <c r="D77">
+        <v>3754</v>
+      </c>
+      <c r="E77">
+        <v>2641</v>
+      </c>
+      <c r="F77">
+        <v>1634</v>
+      </c>
+      <c r="G77">
+        <v>10206</v>
+      </c>
+      <c r="H77">
+        <v>19024</v>
+      </c>
+      <c r="I77">
+        <v>958</v>
+      </c>
+      <c r="J77">
+        <v>4713</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4447</v>
+      </c>
+      <c r="O77">
+        <v>10810</v>
+      </c>
+      <c r="P77">
+        <v>5313</v>
+      </c>
+      <c r="Q77">
+        <v>115</v>
+      </c>
+      <c r="R77">
+        <v>43765</v>
+      </c>
+      <c r="S77">
+        <v>22000</v>
+      </c>
+      <c r="T77">
+        <v>8214</v>
+      </c>
+      <c r="U77">
+        <v>3129</v>
+      </c>
+      <c r="V77">
+        <v>826</v>
+      </c>
+      <c r="W77">
+        <v>-194</v>
+      </c>
+      <c r="X77">
+        <v>-625</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>11</v>
+      </c>
+      <c r="AA77">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>892</v>
+      </c>
+      <c r="D78">
+        <v>4162</v>
+      </c>
+      <c r="E78">
+        <v>2815</v>
+      </c>
+      <c r="F78">
+        <v>1858</v>
+      </c>
+      <c r="G78">
+        <v>10769</v>
+      </c>
+      <c r="H78">
+        <v>19767</v>
+      </c>
+      <c r="I78">
+        <v>1043</v>
+      </c>
+      <c r="J78">
+        <v>4714</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4569</v>
+      </c>
+      <c r="O78">
+        <v>11107</v>
+      </c>
+      <c r="P78">
+        <v>5474</v>
+      </c>
+      <c r="Q78">
+        <v>295</v>
+      </c>
+      <c r="R78">
+        <v>43856</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>8660</v>
+      </c>
+      <c r="U78">
+        <v>3424</v>
+      </c>
+      <c r="V78">
+        <v>987</v>
+      </c>
+      <c r="W78">
+        <v>-192</v>
+      </c>
+      <c r="X78">
+        <v>-530</v>
+      </c>
+      <c r="Y78">
+        <v>116</v>
+      </c>
+      <c r="Z78">
+        <v>-60</v>
+      </c>
+      <c r="AA78">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>755</v>
+      </c>
+      <c r="D79">
+        <v>3957</v>
+      </c>
+      <c r="E79">
+        <v>2777</v>
+      </c>
+      <c r="F79">
+        <v>1757</v>
+      </c>
+      <c r="G79">
+        <v>12735</v>
+      </c>
+      <c r="H79">
+        <v>21815</v>
+      </c>
+      <c r="I79">
+        <v>1062</v>
+      </c>
+      <c r="J79">
+        <v>6215</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>4765</v>
+      </c>
+      <c r="O79">
+        <v>12791</v>
+      </c>
+      <c r="P79">
+        <v>7059</v>
+      </c>
+      <c r="Q79">
+        <v>1972</v>
+      </c>
+      <c r="R79">
+        <v>43947</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>9024</v>
+      </c>
+      <c r="U79">
+        <v>5281</v>
+      </c>
+      <c r="V79">
+        <v>635</v>
+      </c>
+      <c r="W79">
+        <v>-193</v>
+      </c>
+      <c r="X79">
+        <v>1172</v>
+      </c>
+      <c r="Y79">
+        <v>185</v>
+      </c>
+      <c r="Z79">
+        <v>263</v>
+      </c>
+      <c r="AA79">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>841</v>
+      </c>
+      <c r="D80">
+        <v>4395</v>
+      </c>
+      <c r="E80">
+        <v>2943</v>
+      </c>
+      <c r="F80">
+        <v>1970</v>
+      </c>
+      <c r="G80">
+        <v>12248</v>
+      </c>
+      <c r="H80">
+        <v>21171</v>
+      </c>
+      <c r="I80">
+        <v>1118</v>
+      </c>
+      <c r="J80">
+        <v>5447</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>4285</v>
+      </c>
+      <c r="O80">
+        <v>11602</v>
+      </c>
+      <c r="P80">
+        <v>5706</v>
+      </c>
+      <c r="Q80">
+        <v>-931</v>
+      </c>
+      <c r="R80">
+        <v>44038</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>9569</v>
+      </c>
+      <c r="U80">
+        <v>4350</v>
+      </c>
+      <c r="V80">
+        <v>867</v>
+      </c>
+      <c r="W80">
+        <v>-202</v>
+      </c>
+      <c r="X80">
+        <v>-1806</v>
+      </c>
+      <c r="Y80">
+        <v>196</v>
+      </c>
+      <c r="Z80">
+        <v>175</v>
+      </c>
+      <c r="AA80">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>1131</v>
+      </c>
+      <c r="D81">
+        <v>4688</v>
+      </c>
+      <c r="E81">
+        <v>3111</v>
+      </c>
+      <c r="F81">
+        <v>2130</v>
+      </c>
+      <c r="G81">
+        <v>13369</v>
+      </c>
+      <c r="H81">
+        <v>22353</v>
+      </c>
+      <c r="I81">
+        <v>1124</v>
+      </c>
+      <c r="J81">
+        <v>5448</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>4459</v>
+      </c>
+      <c r="O81">
+        <v>11775</v>
+      </c>
+      <c r="P81">
+        <v>5707</v>
+      </c>
+      <c r="Q81">
+        <v>1001</v>
+      </c>
+      <c r="R81">
+        <v>44129</v>
+      </c>
+      <c r="S81">
+        <v>24000</v>
+      </c>
+      <c r="T81">
+        <v>10578</v>
+      </c>
+      <c r="U81">
+        <v>5351</v>
+      </c>
+      <c r="V81">
+        <v>1315</v>
+      </c>
+      <c r="W81">
+        <v>-200</v>
+      </c>
+      <c r="X81">
+        <v>-173</v>
+      </c>
+      <c r="Y81">
+        <v>195</v>
+      </c>
+      <c r="Z81">
+        <v>21</v>
+      </c>
+      <c r="AA81">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>1130</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>5162</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>3212</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>2361</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>14269</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>23305</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1076</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>5449</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>4504</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>11832</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>5698</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>862</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44227</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>11473</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>6213</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1421</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-201</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-343</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>186</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-83</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>1130</v>
       </c>
     </row>
